--- a/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
+++ b/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="284">
   <si>
     <t>Charity_Organization</t>
   </si>
@@ -71,58 +71,61 @@
     <t>Overall_PMP_Rating</t>
   </si>
   <si>
+    <t>Legacy Club Services</t>
+  </si>
+  <si>
     <t>Sir David Martin Foundation</t>
   </si>
   <si>
     <t>Drummoyne Community Centre Inc</t>
   </si>
   <si>
+    <t>MTC Future Ready</t>
+  </si>
+  <si>
     <t>Property Industry Foundation</t>
   </si>
   <si>
-    <t>MTC Future Ready</t>
-  </si>
-  <si>
     <t>Cleaning Accountability Framework (CAF)</t>
   </si>
   <si>
     <t>GFG Foundation</t>
   </si>
   <si>
-    <t>Legacy Club Services</t>
-  </si>
-  <si>
     <t>Rev. Bill Crews Foundation</t>
   </si>
   <si>
     <t>Total Environment Centre</t>
   </si>
   <si>
+    <t>Business ERP</t>
+  </si>
+  <si>
     <t>Youth AOD Knowledge Hub</t>
   </si>
   <si>
     <t>50th Anniversary of DCC</t>
   </si>
   <si>
+    <t>Implementation of PMO</t>
+  </si>
+  <si>
     <t>Events management</t>
   </si>
   <si>
-    <t>Implementation of PMO</t>
-  </si>
-  <si>
     <t>Website overhaul</t>
   </si>
   <si>
-    <t>Business ERP</t>
-  </si>
-  <si>
     <t>To Be Confirmed</t>
   </si>
   <si>
+    <t>Strategic Focus &amp; Capacity Alignment</t>
+  </si>
+  <si>
     <t>Building Projects and Working bee Plans</t>
   </si>
   <si>
-    <t>Strategic Focus &amp; Capacity Alignment</t>
+    <t xml:space="preserve">implementation of new accounting software </t>
   </si>
   <si>
     <t>A comprehensive national online resource hub that connects young people experiencing alcohol and oth...</t>
@@ -131,30 +134,27 @@
     <t>Project plan for anniversary. Includes various projects /activities within.</t>
   </si>
   <si>
+    <t>Guidance/advice on implementation of PMO</t>
+  </si>
+  <si>
     <t>Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver,...</t>
   </si>
   <si>
-    <t>Guidance/advice on implementation of PMO</t>
-  </si>
-  <si>
     <t>Our website needs to be overhauled/rebuilt</t>
   </si>
   <si>
     <t>nan</t>
   </si>
   <si>
-    <t xml:space="preserve">implementation of new accounting software </t>
-  </si>
-  <si>
     <t>We are yet to finalise the best initiative or project</t>
   </si>
   <si>
+    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on...</t>
+  </si>
+  <si>
     <t>We currently organise a range of small to medium building projects for frontline charities but inter...</t>
   </si>
   <si>
-    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on...</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -170,187 +170,184 @@
     <t>PMP 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Sameh  Megally </t>
+  </si>
+  <si>
+    <t>Nikki Gittins</t>
+  </si>
+  <si>
+    <t>Emma  Voss</t>
+  </si>
+  <si>
     <t>Jauhar Janjua</t>
   </si>
   <si>
+    <t>Haryanni Masarip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yanika  Okaeva </t>
+  </si>
+  <si>
+    <t>Hadi Ahmadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim  Dani </t>
+  </si>
+  <si>
+    <t>Abby Thakur Satyanarayan</t>
+  </si>
+  <si>
+    <t>Indra Halim</t>
+  </si>
+  <si>
+    <t>Nadun Dhanushka</t>
+  </si>
+  <si>
+    <t>Julia Wright</t>
+  </si>
+  <si>
+    <t>Maria Mainhardt</t>
+  </si>
+  <si>
+    <t>Shannon Blades</t>
+  </si>
+  <si>
+    <t>Doris  Wang</t>
+  </si>
+  <si>
+    <t>Frederick Xavier</t>
+  </si>
+  <si>
+    <t>Lindsey Norris</t>
+  </si>
+  <si>
     <t>Arvin Arikathota</t>
   </si>
   <si>
-    <t>Haryanni Masarip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yanika  Okaeva </t>
-  </si>
-  <si>
-    <t>Abby Thakur Satyanarayan</t>
-  </si>
-  <si>
-    <t>Indra Halim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibrahim  Dani </t>
-  </si>
-  <si>
-    <t>Shannon Blades</t>
-  </si>
-  <si>
-    <t>Nadun Dhanushka</t>
-  </si>
-  <si>
-    <t>Frederick Xavier</t>
-  </si>
-  <si>
-    <t>Maria Mainhardt</t>
-  </si>
-  <si>
-    <t>Doris  Wang</t>
-  </si>
-  <si>
     <t xml:space="preserve">Laetitia Callegari </t>
   </si>
   <si>
-    <t>Mirna Alemadi</t>
-  </si>
-  <si>
     <t>Ryan Benedek</t>
   </si>
   <si>
-    <t>Neha Purohit</t>
-  </si>
-  <si>
-    <t>Suresh Reddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suresh  Reddy </t>
-  </si>
-  <si>
-    <t>Shreya  Shah</t>
-  </si>
-  <si>
-    <t>Durita Sookharee</t>
-  </si>
-  <si>
     <t>More than 8 Years</t>
   </si>
   <si>
     <t>4 - 8 Years</t>
   </si>
   <si>
-    <t>Less than a Year</t>
-  </si>
-  <si>
-    <t>1 - 3 Years</t>
+    <t xml:space="preserve">Sydney Water </t>
+  </si>
+  <si>
+    <t>Atlassian</t>
+  </si>
+  <si>
+    <t>Woolworths</t>
   </si>
   <si>
     <t>HellermannTyton</t>
   </si>
   <si>
+    <t xml:space="preserve">Empowerment PM Solutions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quikky Move </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUFG Retirement Services </t>
+  </si>
+  <si>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t>AmplifyD</t>
+  </si>
+  <si>
+    <t>NSW Government</t>
+  </si>
+  <si>
+    <t>Sierra Bravo Group</t>
+  </si>
+  <si>
+    <t>AGSM/ Suncorp Bank</t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
     <t>Accenture</t>
   </si>
   <si>
-    <t xml:space="preserve">Empowerment PM Solutions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quikky Move </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUFG Retirement Services </t>
-  </si>
-  <si>
-    <t>Livingstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney University </t>
-  </si>
-  <si>
-    <t>Sierra Bravo Group</t>
-  </si>
-  <si>
-    <t>AmplifyD</t>
-  </si>
-  <si>
-    <t>Canva</t>
-  </si>
-  <si>
-    <t>NSW Government</t>
-  </si>
-  <si>
-    <t>AGSM/ Suncorp Bank</t>
-  </si>
-  <si>
     <t xml:space="preserve">PrimeScope </t>
   </si>
   <si>
     <t>ACM</t>
   </si>
   <si>
-    <t>The Data analytics Institute</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>Sydney Metro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northrop consulting engineers </t>
+    <t xml:space="preserve">Cost Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snr Principle Program Manager [Technical] </t>
+  </si>
+  <si>
+    <t>Stock Loss Manager, Partnerships</t>
   </si>
   <si>
     <t>Project Engineer</t>
   </si>
   <si>
+    <t>Principal Trainer</t>
+  </si>
+  <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Project Manager </t>
+  </si>
+  <si>
+    <t>Managing Partner, Sales Operations</t>
+  </si>
+  <si>
+    <t>Delivery Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head of Transformation - Smaart Enablement </t>
+  </si>
+  <si>
+    <t>Enterprise PMO Advisor</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
+  </si>
+  <si>
+    <t>Staff Technical Program Manager</t>
+  </si>
+  <si>
     <t>Delivery Lead</t>
   </si>
   <si>
-    <t>Principal Trainer</t>
-  </si>
-  <si>
-    <t>Project manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Project Manager </t>
-  </si>
-  <si>
-    <t>Managing Partner, Sales Operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturer </t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t>Delivery Consultant</t>
-  </si>
-  <si>
-    <t>Staff Technical Program Manager</t>
-  </si>
-  <si>
-    <t>Enterprise PMO Advisor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
-  </si>
-  <si>
     <t>Program Director</t>
   </si>
   <si>
-    <t xml:space="preserve">Full time Medical Science and Law student, Legal Administration Volunteer and Volunteer Tutor. And learning about Design Thinking and Project Management. Recently completed the Kickoff course. </t>
-  </si>
-  <si>
     <t>Project Controls Specialist</t>
   </si>
   <si>
-    <t>Associate Data Analyst</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t>Product Owner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sustainability Consultant </t>
+    <t>https://www.linkedin.com/in/sameh-megally-8aa66a7b?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/emma-voss-07a91341</t>
   </si>
   <si>
     <t>www.linkedin.com/in/jauhar</t>
@@ -362,100 +359,82 @@
     <t>https://www.linkedin.com/in/yanika-okaeva</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
+  </si>
+  <si>
+    <t>Linkedin.com/in/ibrahimdani</t>
+  </si>
+  <si>
     <t>www.linkedin.com/in/abhilashasthakur</t>
   </si>
   <si>
     <t>https://linkedin.com/in/indra-halim</t>
   </si>
   <si>
-    <t>Linkedin.com/in/ibrahimdani</t>
+    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/juliawright1</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/mariamainhardt</t>
   </si>
   <si>
     <t>www.linkedin.com/in/shannon-blades</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
+    <t>https://www.linkedin.com/in/doris-x-wang</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/freddiexavier</t>
   </si>
   <si>
-    <t>linkedin.com/in/mariamainhardt</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/doris-x-wang</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/mirna-alemadi</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/ryan-benedek/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/neha-purohit08/</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/suresh-reddy-4a01967b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suresh Reddy </t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/shreya-shah-s</t>
-  </si>
-  <si>
-    <t>http://linkedin.com/in/durita-sookharee-pmp®-b7b826166</t>
+    <t>Project Management: 5.0, Strategic Planning: 5.0, Business Change Management: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Business Change Management: 5.0, Business Analysis: 5.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Business Analysis: 5.0</t>
   </si>
   <si>
+    <t>Project Management: 5.0, Events Planning and Management: 5.0, Portfolio Management: 4.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Strategic Planning: 5.0, Volunteering for a Non-profit Organisation: 5.0</t>
+  </si>
+  <si>
     <t>Project Management: 5.0, Understanding of Agile Principles: 5.0, Plan and Manage Agile Projects: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Events Planning and Management: 5.0, Portfolio Management: 4.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Strategic Planning: 5.0, Volunteering for a Non-profit Organisation: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Strategic Planning: 5.0, Business Change Management: 5.0</t>
+    <t>Project Management: 5.0, Strategic Planning: 5.0, Portfolio Management: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Volunteering for a Non-profit Organisation: 5.0, Strategic Planning: 4.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Business Change Management: 5.0, Strategic Planning: 4.0</t>
   </si>
   <si>
+    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
+  </si>
+  <si>
     <t>Project Management: 5.0, Portfolio Management: 5.0, Understanding of Agile Principles: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Volunteering for a Non-profit Organisation: 5.0, Strategic Planning: 4.0</t>
-  </si>
-  <si>
-    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
+    <t>Project Management: 5.0, Business Analysis: 5.0, Understanding of Agile Principles: 5.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Business Analysis: 5.0, Business Change Management: 4.0</t>
   </si>
   <si>
-    <t>Project Management: 1.0, Strategic Planning: 1.0, Business Change Management: 1.0</t>
-  </si>
-  <si>
     <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
   </si>
   <si>
-    <t>Business Change Management: 5.0, Plan and Manage Agile Projects: 5.0, Project Management: 4.0</t>
-  </si>
-  <si>
-    <t>Volunteering for a Non-profit Organisation: 4.0, Events Planning and Management: 4.0, Project Management: 3.0</t>
-  </si>
-  <si>
-    <t>Planning &amp; Management of the Implementation of New Software Solutions: 5.0, Volunteering for a Non-profit Organisation: 5.0, Project Management: 4.0</t>
-  </si>
-  <si>
-    <t>Project Management: 3.0, Strategic Planning: 3.0, Understanding of Agile Principles: 3.0</t>
-  </si>
-  <si>
-    <t>Project Management: 3.0, Strategic Planning: 3.0, Volunteering for a Non-profit Organisation: 3.0</t>
+    <t>Business Analysis: 7, Strategic Planning: 4, Business Change Management: 4</t>
   </si>
   <si>
     <t>Strategic Planning: 10, Volunteering for a Non-profit Organisation: 6, Project Management: 4</t>
@@ -464,25 +443,22 @@
     <t>Events Planning and Management: 10, Project Management: 4, Volunteering for a Non-profit Organisation: 4</t>
   </si>
   <si>
+    <t>Business Change Management: 9</t>
+  </si>
+  <si>
     <t>Events Planning and Management: 10, Strategic Planning: 8, Business Analysis: 2</t>
   </si>
   <si>
-    <t>Business Change Management: 9</t>
-  </si>
-  <si>
     <t>Strategic Planning: 2, Development of User Requirements: 2</t>
   </si>
   <si>
     <t>Volunteering for a Non-profit Organisation: 2</t>
   </si>
   <si>
-    <t>Business Analysis: 7, Strategic Planning: 4, Business Change Management: 4</t>
+    <t>Strategic Planning: 10, Events Planning and Management: 4, Project Management: 2</t>
   </si>
   <si>
     <t>Business Analysis: 4, Volunteering for a Non-profit Organisation: 4, Strategic Planning: 2</t>
-  </si>
-  <si>
-    <t>Strategic Planning: 10, Events Planning and Management: 4, Project Management: 2</t>
   </si>
   <si>
     <t>Organization</t>
@@ -513,10 +489,13 @@
     <t xml:space="preserve">Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver, Amplify, Transform. </t>
   </si>
   <si>
+    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on it. Limited leadership and management capacity mean that opportunities are sometimes pursued without clear prioritisation, leading to overstretch, inefficiency, and reduced impact.</t>
+  </si>
+  <si>
     <t xml:space="preserve">We currently organise a range of small to medium building projects for frontline charities but internally we do not have any expertise on project building management. Having a template or system to guide us would be great. </t>
   </si>
   <si>
-    <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on it. Limited leadership and management capacity mean that opportunities are sometimes pursued without clear prioritisation, leading to overstretch, inefficiency, and reduced impact.</t>
+    <t>Strategic Planning, Business Change Management, Business Analysis, Technology Change Management, Planning &amp; Management of the Implementation of New Software Solutions</t>
   </si>
   <si>
     <t>Project Management, Strategic Planning, Volunteering for a Non-profit Organisation, Systems Integration (Business and Technical)</t>
@@ -525,121 +504,124 @@
     <t>Project Management, Volunteering for a Non-profit Organisation, Events Planning and Management</t>
   </si>
   <si>
+    <t>Business Change Management</t>
+  </si>
+  <si>
     <t>Strategic Planning, Events Planning and Management</t>
   </si>
   <si>
-    <t>Business Change Management</t>
-  </si>
-  <si>
-    <t>Strategic Planning, Business Change Management, Business Analysis, Technology Change Management, Planning &amp; Management of the Implementation of New Software Solutions</t>
-  </si>
-  <si>
     <t>Business Analysis, Volunteering for a Non-profit Organisation</t>
   </si>
   <si>
-    <t>Jauhar Janjua | Arvin Arikathota</t>
+    <t>Sameh  Megally  | Nikki Gittins</t>
+  </si>
+  <si>
+    <t>Emma  Voss | Jauhar Janjua</t>
   </si>
   <si>
     <t xml:space="preserve">Haryanni Masarip | Yanika  Okaeva </t>
   </si>
   <si>
+    <t xml:space="preserve">Hadi Ahmadi | Ibrahim  Dani </t>
+  </si>
+  <si>
     <t>Abby Thakur Satyanarayan | Indra Halim</t>
   </si>
   <si>
-    <t>Ibrahim  Dani  | Shannon Blades</t>
-  </si>
-  <si>
-    <t>Nadun Dhanushka | Frederick Xavier</t>
-  </si>
-  <si>
-    <t>Maria Mainhardt | Doris  Wang</t>
-  </si>
-  <si>
-    <t>Laetitia Callegari  | Mirna Alemadi</t>
-  </si>
-  <si>
-    <t>Ryan Benedek | Neha Purohit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suresh Reddy | Suresh  Reddy </t>
-  </si>
-  <si>
-    <t>Shreya  Shah | Durita Sookharee</t>
-  </si>
-  <si>
-    <t>91.11 | 77.04</t>
+    <t>Nadun Dhanushka | Julia Wright</t>
+  </si>
+  <si>
+    <t>Maria Mainhardt | Shannon Blades</t>
+  </si>
+  <si>
+    <t>Doris  Wang | Frederick Xavier</t>
+  </si>
+  <si>
+    <t>Lindsey Norris | Arvin Arikathota</t>
+  </si>
+  <si>
+    <t>Laetitia Callegari  | Ryan Benedek</t>
+  </si>
+  <si>
+    <t>93.02 | 81.4</t>
+  </si>
+  <si>
+    <t>92.96 | 91.11</t>
   </si>
   <si>
     <t>90.0 | 86.32</t>
   </si>
   <si>
+    <t>89.66 | 87.59</t>
+  </si>
+  <si>
     <t>89.05 | 82.86</t>
   </si>
   <si>
-    <t>87.59 | 87.59</t>
-  </si>
-  <si>
-    <t>84.17 | 79.17</t>
-  </si>
-  <si>
-    <t>83.64 | 80.0</t>
-  </si>
-  <si>
-    <t>75.81 | 29.3</t>
-  </si>
-  <si>
-    <t>75.45 | 74.55</t>
-  </si>
-  <si>
-    <t>65.88 | 61.18</t>
-  </si>
-  <si>
-    <t>56.96 | 52.61</t>
-  </si>
-  <si>
-    <t>8 | 0</t>
+    <t>84.17 | 81.67</t>
+  </si>
+  <si>
+    <t>83.64 | 81.82</t>
+  </si>
+  <si>
+    <t>80.0 | 79.09</t>
+  </si>
+  <si>
+    <t>77.39 | 75.65</t>
+  </si>
+  <si>
+    <t>74.12 | 71.18</t>
+  </si>
+  <si>
+    <t>10 | 0</t>
+  </si>
+  <si>
+    <t>8 | 8</t>
   </si>
   <si>
     <t>10 | 10</t>
   </si>
   <si>
+    <t>10 | 8</t>
+  </si>
+  <si>
     <t>8 | 10</t>
   </si>
   <si>
-    <t>8 | 8</t>
-  </si>
-  <si>
-    <t>0 | 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
+    <t>0 | 0</t>
+  </si>
+  <si>
+    <t>0 | 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Sameh  Megally ) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 4); Business Change Management (PMP: 5.0/5, Required: 4). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nikki Gittins) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Emma  Voss) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Haryanni Masarip) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Yanika  Okaeva ) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
+    <t xml:space="preserve">PMP 1 (Hadi Ahmadi) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ibrahim  Dani ) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
     <t xml:space="preserve">PMP 1 (Abby Thakur Satyanarayan) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Indra Halim) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Ibrahim  Dani ) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Shannon Blades) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Maria Mainhardt) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Change Management (PMP: 4.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Mirna Alemadi) selected because: High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Ryan Benedek) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Neha Purohit) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Suresh Reddy) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Suresh  Reddy ) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Shreya  Shah) selected because: High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Durita Sookharee) selected because: High-quality LinkedIn profile. Complete professional profile. </t>
+    <t xml:space="preserve">PMP 1 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Julia Wright) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Maria Mainhardt) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Shannon Blades) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Lindsey Norris) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Analysis (PMP: 5.0/5, Required: 4); Technology Change Management (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Ryan Benedek) selected because: Strong skills in Business Analysis (PMP: 4.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
     <t>Name</t>
@@ -660,6 +642,135 @@
     <t>Enhanced_Overall_Score</t>
   </si>
   <si>
+    <t>Neha Purohit</t>
+  </si>
+  <si>
+    <t>Mirna Alemadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suresh  Reddy </t>
+  </si>
+  <si>
+    <t>Durita Sookharee</t>
+  </si>
+  <si>
+    <t>Suresh Reddy</t>
+  </si>
+  <si>
+    <t>Shreya  Shah</t>
+  </si>
+  <si>
+    <t>Jacqueline Shen</t>
+  </si>
+  <si>
+    <t>Peter Harrison</t>
+  </si>
+  <si>
+    <t>Aishwarya  Rajendran</t>
+  </si>
+  <si>
+    <t>Carolina Abelha Melo</t>
+  </si>
+  <si>
+    <t>Ivonne Portocarrero</t>
+  </si>
+  <si>
+    <t>Richard John</t>
+  </si>
+  <si>
+    <t>Achintya Hrishikesh</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/neha-purohit08/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/mirna-alemadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suresh Reddy </t>
+  </si>
+  <si>
+    <t>http://linkedin.com/in/durita-sookharee-pmp®-b7b826166</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/suresh-reddy-4a01967b</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/shreya-shah-s</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jacqueline-shen-5b565917a/</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/aishwarya-rajendran2012</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/achintya-h-10b694227/</t>
+  </si>
+  <si>
+    <t>The Data analytics Institute</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northrop consulting engineers </t>
+  </si>
+  <si>
+    <t>Sydney Metro</t>
+  </si>
+  <si>
+    <t>Blue Yonder</t>
+  </si>
+  <si>
+    <t>HOMES NSW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optik Consultancy </t>
+  </si>
+  <si>
+    <t>CIP - Corporate Interior Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entelso </t>
+  </si>
+  <si>
+    <t>Telstra</t>
+  </si>
+  <si>
+    <t>reKro</t>
+  </si>
+  <si>
+    <t>Associate Data Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full time Medical Science and Law student, Legal Administration Volunteer and Volunteer Tutor. And learning about Design Thinking and Project Management. Recently completed the Kickoff course. </t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sustainability Consultant </t>
+  </si>
+  <si>
+    <t>marketing coordinator</t>
+  </si>
+  <si>
+    <t>Program Manager</t>
+  </si>
+  <si>
+    <t>Consulting Intern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Manager </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telecommunications Engineer </t>
+  </si>
+  <si>
+    <t>Project operations</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -669,6 +780,12 @@
     <t>Areas_of_Interest</t>
   </si>
   <si>
+    <t>Less than a Year</t>
+  </si>
+  <si>
+    <t>1 - 3 Years</t>
+  </si>
+  <si>
     <t>Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, PMO</t>
   </si>
   <si>
@@ -721,6 +838,33 @@
   </si>
   <si>
     <t>Strategic Planning, Problem Analysis and Solutioning, Events Planning</t>
+  </si>
+  <si>
+    <t>Software Implementation and/or Rollout, Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, Events Planning</t>
+  </si>
+  <si>
+    <t>Software Implementation and/or Rollout</t>
+  </si>
+  <si>
+    <t>Strategic Planning, Business Change Management or Change Related Initiatives, Fund Raising Initiatives, Problem Analysis and Solutioning, Expansion of Membership and/or Increasing Awareness and Support for NFP Organisation</t>
+  </si>
+  <si>
+    <t>Business Change Management or Change Related Initiatives, Fund Raising Initiatives, Events Planning</t>
+  </si>
+  <si>
+    <t>Business Change Management or Change Related Initiatives</t>
+  </si>
+  <si>
+    <t>Software Implementation and/or Rollout, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning</t>
+  </si>
+  <si>
+    <t>Strategic Planning, Problem Analysis and Solutioning</t>
+  </si>
+  <si>
+    <t>Fund Raising Initiatives, Problem Analysis and Solutioning, Expansion of Membership and/or Increasing Awareness and Support for NFP Organisation, Events Planning</t>
+  </si>
+  <si>
+    <t>Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning</t>
   </si>
   <si>
     <t>Priority</t>
@@ -1120,13 +1264,13 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="176.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="137.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="136.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="89.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="96" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="19" bestFit="1" customWidth="1"/>
   </cols>
@@ -1210,31 +1354,31 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2" t="s">
-        <v>111</v>
+        <v>89</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M2">
         <v>10</v>
       </c>
       <c r="N2">
-        <v>91.11</v>
+        <v>93.02</v>
       </c>
       <c r="O2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q2">
-        <v>5.99</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1263,10 +1407,10 @@
         <v>70</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -1275,16 +1419,16 @@
         <v>8</v>
       </c>
       <c r="N3">
-        <v>77.04000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q3">
-        <v>4.71</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1301,7 +1445,7 @@
         <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1313,31 +1457,31 @@
         <v>70</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>91</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
       </c>
       <c r="L4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N4">
-        <v>90</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q4">
-        <v>3.96</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1354,7 +1498,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -1363,34 +1507,34 @@
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>110</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>86.31999999999999</v>
+        <v>91.11</v>
       </c>
       <c r="O5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Q5">
-        <v>4.53</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1407,7 +1551,7 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1419,31 +1563,31 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" t="s">
-        <v>114</v>
+        <v>93</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="L6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>89.05</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q6">
-        <v>5.56</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1460,7 +1604,7 @@
         <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1472,13 +1616,13 @@
         <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L7">
         <v>10</v>
@@ -1487,16 +1631,16 @@
         <v>9</v>
       </c>
       <c r="N7">
-        <v>82.86</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="O7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="Q7">
-        <v>5.68</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1525,31 +1669,31 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
+        <v>95</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M8">
         <v>10</v>
       </c>
       <c r="N8">
-        <v>87.59</v>
+        <v>89.66</v>
       </c>
       <c r="O8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="P8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q8">
-        <v>5.07</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1578,13 +1722,13 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L9">
         <v>8</v>
@@ -1596,13 +1740,13 @@
         <v>87.59</v>
       </c>
       <c r="O9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="Q9">
-        <v>4.68</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1616,10 +1760,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1631,31 +1775,31 @@
         <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N10">
-        <v>84.17</v>
+        <v>89.05</v>
       </c>
       <c r="O10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q10">
-        <v>5.19</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1669,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -1681,40 +1825,43 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>79.17</v>
+        <v>82.86</v>
       </c>
       <c r="O11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="Q11">
-        <v>4.73</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
         <v>22</v>
       </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
       <c r="C12" t="s">
         <v>40</v>
       </c>
@@ -1734,37 +1881,40 @@
         <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M12">
         <v>10</v>
       </c>
       <c r="N12">
-        <v>83.64</v>
+        <v>84.17</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="P12" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q12">
-        <v>3.61</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
         <v>22</v>
       </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" t="s">
         <v>40</v>
       </c>
@@ -1784,48 +1934,45 @@
         <v>70</v>
       </c>
       <c r="I13" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>121</v>
+        <v>100</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N13">
-        <v>80</v>
+        <v>81.67</v>
       </c>
       <c r="O13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="Q13">
-        <v>3.83</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
         <v>48</v>
@@ -1837,45 +1984,45 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N14">
-        <v>75.81</v>
+        <v>83.64</v>
       </c>
       <c r="O14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q14">
-        <v>4.32</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s">
         <v>49</v>
@@ -1884,31 +2031,34 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L15">
         <v>8</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>29.3</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="Q15">
-        <v>2.2</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1934,34 +2084,34 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L16">
         <v>10</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16">
-        <v>75.45</v>
+        <v>80</v>
       </c>
       <c r="O16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q16">
-        <v>4.5</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1987,39 +2137,39 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L17">
         <v>10</v>
       </c>
       <c r="M17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N17">
-        <v>74.55</v>
+        <v>79.09</v>
       </c>
       <c r="O17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="Q17">
-        <v>4.91</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -2028,7 +2178,7 @@
         <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
         <v>47</v>
@@ -2040,39 +2190,36 @@
         <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>108</v>
-      </c>
-      <c r="K18" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="L18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>65.88</v>
+        <v>77.39</v>
       </c>
       <c r="O18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q18">
-        <v>3.84</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -2081,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
         <v>47</v>
@@ -2093,39 +2240,36 @@
         <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>61.18</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="O19" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="P19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q19">
-        <v>3.5</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -2134,7 +2278,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -2146,39 +2290,36 @@
         <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
-      </c>
-      <c r="K20" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>56.96</v>
+        <v>74.12</v>
       </c>
       <c r="O20" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="P20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q20">
-        <v>3.1</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2187,7 +2328,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -2199,44 +2340,44 @@
         <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>10</v>
       </c>
       <c r="N21">
-        <v>52.61</v>
+        <v>71.18000000000001</v>
       </c>
       <c r="O21" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Q21">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1"/>
-    <hyperlink ref="K5" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K6" r:id="rId2"/>
     <hyperlink ref="K7" r:id="rId3"/>
-    <hyperlink ref="K10" r:id="rId4"/>
+    <hyperlink ref="K8" r:id="rId4"/>
     <hyperlink ref="K11" r:id="rId5"/>
-    <hyperlink ref="K13" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId6"/>
     <hyperlink ref="K16" r:id="rId7"/>
     <hyperlink ref="K17" r:id="rId8"/>
     <hyperlink ref="K21" r:id="rId9"/>
@@ -2265,28 +2406,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2297,22 +2438,22 @@
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2323,22 +2464,22 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2349,22 +2490,22 @@
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2378,19 +2519,19 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2401,65 +2542,65 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>162</v>
       </c>
       <c r="E6" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="H6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" t="s">
         <v>187</v>
       </c>
-      <c r="G7" t="s">
-        <v>194</v>
-      </c>
       <c r="H7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>170</v>
       </c>
-      <c r="E8" t="s">
-        <v>178</v>
-      </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2473,68 +2614,68 @@
         <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H10" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G11" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="H11" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2544,50 +2685,50 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="137.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="176.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -2596,10 +2737,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G2">
         <v>3.61</v>
@@ -2607,10 +2748,10 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -2619,10 +2760,10 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="G3">
         <v>4.91</v>
@@ -2630,10 +2771,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>221</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -2642,7 +2783,7 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="G4">
         <v>2.2</v>
@@ -2650,7 +2791,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>121</v>
@@ -2662,7 +2803,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" t="s">
         <v>103</v>
@@ -2673,10 +2814,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -2688,7 +2829,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>4.53</v>
@@ -2696,10 +2837,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2708,7 +2849,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
         <v>92</v>
@@ -2719,10 +2860,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -2731,10 +2872,10 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8">
         <v>5.07</v>
@@ -2742,7 +2883,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2751,10 +2892,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="G9">
         <v>4.71</v>
@@ -2762,10 +2903,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2777,7 +2918,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10">
         <v>3.96</v>
@@ -2785,7 +2926,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2794,10 +2935,10 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G11">
         <v>4.32</v>
@@ -2805,10 +2946,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2817,10 +2958,10 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G12">
         <v>5.19</v>
@@ -2828,10 +2969,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2840,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="G13">
         <v>3.5</v>
@@ -2851,10 +2992,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -2863,10 +3004,10 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="G14">
         <v>3.15</v>
@@ -2874,10 +3015,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -2886,10 +3027,10 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G15">
         <v>4.73</v>
@@ -2897,10 +3038,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -2909,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>230</v>
       </c>
       <c r="F16" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="G16">
         <v>3.84</v>
@@ -2920,10 +3061,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -2932,10 +3073,10 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17">
         <v>5.56</v>
@@ -2943,10 +3084,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -2955,10 +3096,10 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G18">
         <v>5.68</v>
@@ -2966,10 +3107,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2978,10 +3119,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G19">
         <v>4.68</v>
@@ -2989,10 +3130,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -3001,7 +3142,7 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
         <v>92</v>
@@ -3012,7 +3153,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>123</v>
@@ -3024,13 +3165,294 @@
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23">
+        <v>4.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" t="s">
+        <v>245</v>
+      </c>
+      <c r="G24">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G30">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" t="s">
+        <v>95</v>
+      </c>
+      <c r="G33">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G34">
+        <v>5.81</v>
       </c>
     </row>
   </sheetData>
@@ -3044,6 +3466,10 @@
     <hyperlink ref="B15" r:id="rId7"/>
     <hyperlink ref="B18" r:id="rId8"/>
     <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B29" r:id="rId11"/>
+    <hyperlink ref="B30" r:id="rId12"/>
+    <hyperlink ref="B34" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3051,7 +3477,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3068,13 +3494,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -3083,10 +3509,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3094,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -3109,7 +3535,7 @@
         <v>3.61</v>
       </c>
       <c r="G2" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3117,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>71</v>
@@ -3132,7 +3558,7 @@
         <v>4.91</v>
       </c>
       <c r="G3" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3140,10 +3566,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>253</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -3155,7 +3581,7 @@
         <v>2.2</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3163,7 +3589,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -3178,7 +3604,7 @@
         <v>3.83</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3186,7 +3612,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>71</v>
@@ -3201,7 +3627,7 @@
         <v>4.53</v>
       </c>
       <c r="G6" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3209,7 +3635,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -3224,7 +3650,7 @@
         <v>5.99</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3232,7 +3658,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -3247,7 +3673,7 @@
         <v>5.07</v>
       </c>
       <c r="G8" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3255,7 +3681,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -3270,7 +3696,7 @@
         <v>4.71</v>
       </c>
       <c r="G9" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3278,7 +3704,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -3293,7 +3719,7 @@
         <v>3.96</v>
       </c>
       <c r="G10" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3301,7 +3727,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -3316,7 +3742,7 @@
         <v>4.32</v>
       </c>
       <c r="G11" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3324,7 +3750,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>70</v>
@@ -3339,7 +3765,7 @@
         <v>5.19</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3347,7 +3773,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
@@ -3362,7 +3788,7 @@
         <v>3.5</v>
       </c>
       <c r="G13" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3370,10 +3796,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>254</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -3385,7 +3811,7 @@
         <v>3.15</v>
       </c>
       <c r="G14" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3393,7 +3819,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -3408,7 +3834,7 @@
         <v>4.73</v>
       </c>
       <c r="G15" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3416,7 +3842,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
@@ -3431,7 +3857,7 @@
         <v>3.84</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3439,7 +3865,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -3454,7 +3880,7 @@
         <v>5.56</v>
       </c>
       <c r="G17" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3462,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -3477,7 +3903,7 @@
         <v>5.68</v>
       </c>
       <c r="G18" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3485,7 +3911,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>70</v>
@@ -3500,7 +3926,7 @@
         <v>4.68</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3508,7 +3934,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
@@ -3523,7 +3949,7 @@
         <v>3.1</v>
       </c>
       <c r="G20" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3531,7 +3957,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
         <v>71</v>
@@ -3546,7 +3972,306 @@
         <v>4.5</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>4.37</v>
+      </c>
+      <c r="G22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>4.94</v>
+      </c>
+      <c r="G23" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>9</v>
+      </c>
+      <c r="F24">
+        <v>3.99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25">
+        <v>2.48</v>
+      </c>
+      <c r="G25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>3.37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>2.86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>3.94</v>
+      </c>
+      <c r="G28" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>5.04</v>
+      </c>
+      <c r="G29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>4.45</v>
+      </c>
+      <c r="G30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="F31">
+        <v>4.84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>6.25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>4.71</v>
+      </c>
+      <c r="G33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>5.81</v>
+      </c>
+      <c r="G34" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3571,19 +4296,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3591,10 +4316,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -3608,7 +4333,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -3622,10 +4347,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>45</v>
@@ -3656,10 +4381,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -3673,10 +4398,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -3690,10 +4415,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -3724,10 +4449,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -3744,7 +4469,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>

--- a/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
+++ b/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="278">
   <si>
     <t>Charity_Organization</t>
   </si>
@@ -77,18 +77,18 @@
     <t>Sir David Martin Foundation</t>
   </si>
   <si>
+    <t>MTC Future Ready</t>
+  </si>
+  <si>
+    <t>Property Industry Foundation</t>
+  </si>
+  <si>
+    <t>Cleaning Accountability Framework (CAF)</t>
+  </si>
+  <si>
     <t>Drummoyne Community Centre Inc</t>
   </si>
   <si>
-    <t>MTC Future Ready</t>
-  </si>
-  <si>
-    <t>Property Industry Foundation</t>
-  </si>
-  <si>
-    <t>Cleaning Accountability Framework (CAF)</t>
-  </si>
-  <si>
     <t>GFG Foundation</t>
   </si>
   <si>
@@ -104,18 +104,18 @@
     <t>Youth AOD Knowledge Hub</t>
   </si>
   <si>
+    <t>Implementation of PMO</t>
+  </si>
+  <si>
+    <t>Events management</t>
+  </si>
+  <si>
+    <t>Website overhaul</t>
+  </si>
+  <si>
     <t>50th Anniversary of DCC</t>
   </si>
   <si>
-    <t>Implementation of PMO</t>
-  </si>
-  <si>
-    <t>Events management</t>
-  </si>
-  <si>
-    <t>Website overhaul</t>
-  </si>
-  <si>
     <t>To Be Confirmed</t>
   </si>
   <si>
@@ -131,18 +131,18 @@
     <t>A comprehensive national online resource hub that connects young people experiencing alcohol and oth...</t>
   </si>
   <si>
+    <t>Guidance/advice on implementation of PMO</t>
+  </si>
+  <si>
+    <t>Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver,...</t>
+  </si>
+  <si>
+    <t>Our website needs to be overhauled/rebuilt</t>
+  </si>
+  <si>
     <t>Project plan for anniversary. Includes various projects /activities within.</t>
   </si>
   <si>
-    <t>Guidance/advice on implementation of PMO</t>
-  </si>
-  <si>
-    <t>Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver,...</t>
-  </si>
-  <si>
-    <t>Our website needs to be overhauled/rebuilt</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
@@ -182,54 +182,54 @@
     <t>Jauhar Janjua</t>
   </si>
   <si>
-    <t>Haryanni Masarip</t>
+    <t>Hadi Ahmadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim  Dani </t>
+  </si>
+  <si>
+    <t>Abby Thakur Satyanarayan</t>
+  </si>
+  <si>
+    <t>Jacqueline Shen</t>
+  </si>
+  <si>
+    <t>Dhruv Raniga</t>
+  </si>
+  <si>
+    <t>Nadun Dhanushka</t>
   </si>
   <si>
     <t xml:space="preserve">Yanika  Okaeva </t>
   </si>
   <si>
-    <t>Hadi Ahmadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibrahim  Dani </t>
-  </si>
-  <si>
-    <t>Abby Thakur Satyanarayan</t>
-  </si>
-  <si>
     <t>Indra Halim</t>
   </si>
   <si>
-    <t>Nadun Dhanushka</t>
+    <t>Shannon Blades</t>
+  </si>
+  <si>
+    <t>Doris  Wang</t>
+  </si>
+  <si>
+    <t>Frederick Xavier</t>
+  </si>
+  <si>
+    <t>Ryan Benedek</t>
   </si>
   <si>
     <t>Julia Wright</t>
   </si>
   <si>
-    <t>Maria Mainhardt</t>
-  </si>
-  <si>
-    <t>Shannon Blades</t>
-  </si>
-  <si>
-    <t>Doris  Wang</t>
-  </si>
-  <si>
-    <t>Frederick Xavier</t>
-  </si>
-  <si>
     <t>Lindsey Norris</t>
   </si>
   <si>
+    <t xml:space="preserve">Laetitia Callegari </t>
+  </si>
+  <si>
     <t>Arvin Arikathota</t>
   </si>
   <si>
-    <t xml:space="preserve">Laetitia Callegari </t>
-  </si>
-  <si>
-    <t>Ryan Benedek</t>
-  </si>
-  <si>
     <t>More than 8 Years</t>
   </si>
   <si>
@@ -248,27 +248,27 @@
     <t>HellermannTyton</t>
   </si>
   <si>
-    <t xml:space="preserve">Empowerment PM Solutions </t>
+    <t xml:space="preserve">Sydney University </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUFG Retirement Services </t>
+  </si>
+  <si>
+    <t>Blue Yonder</t>
+  </si>
+  <si>
+    <t>Clarté</t>
+  </si>
+  <si>
+    <t>AmplifyD</t>
   </si>
   <si>
     <t xml:space="preserve">Quikky Move </t>
   </si>
   <si>
-    <t xml:space="preserve">Sydney University </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUFG Retirement Services </t>
-  </si>
-  <si>
     <t>Livingstone</t>
   </si>
   <si>
-    <t>AmplifyD</t>
-  </si>
-  <si>
-    <t>NSW Government</t>
-  </si>
-  <si>
     <t>Sierra Bravo Group</t>
   </si>
   <si>
@@ -278,15 +278,15 @@
     <t>Canva</t>
   </si>
   <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimeScope </t>
+  </si>
+  <si>
     <t>Accenture</t>
   </si>
   <si>
-    <t xml:space="preserve">PrimeScope </t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cost Manager </t>
   </si>
   <si>
@@ -299,51 +299,51 @@
     <t>Project Engineer</t>
   </si>
   <si>
-    <t>Principal Trainer</t>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Project Manager </t>
+  </si>
+  <si>
+    <t>marketing coordinator</t>
+  </si>
+  <si>
+    <t>Strategic Design Consultant</t>
+  </si>
+  <si>
+    <t>Delivery Consultant</t>
   </si>
   <si>
     <t>Project manager</t>
   </si>
   <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senior Project Manager </t>
-  </si>
-  <si>
     <t>Managing Partner, Sales Operations</t>
   </si>
   <si>
-    <t>Delivery Consultant</t>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
+  </si>
+  <si>
+    <t>Staff Technical Program Manager</t>
+  </si>
+  <si>
+    <t>Project Controls Specialist</t>
   </si>
   <si>
     <t xml:space="preserve">Head of Transformation - Smaart Enablement </t>
   </si>
   <si>
-    <t>Enterprise PMO Advisor</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
-  </si>
-  <si>
-    <t>Staff Technical Program Manager</t>
+    <t>Program Director</t>
   </si>
   <si>
     <t>Delivery Lead</t>
   </si>
   <si>
-    <t>Program Director</t>
-  </si>
-  <si>
-    <t>Project Controls Specialist</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/sameh-megally-8aa66a7b?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
@@ -353,45 +353,45 @@
     <t>www.linkedin.com/in/jauhar</t>
   </si>
   <si>
-    <t>https://au.linkedin.com/in/haryanni-masarip</t>
+    <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
+  </si>
+  <si>
+    <t>Linkedin.com/in/ibrahimdani</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/abhilashasthakur</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jacqueline-shen-5b565917a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dhruvraniga/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/yanika-okaeva</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
-  </si>
-  <si>
-    <t>Linkedin.com/in/ibrahimdani</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/abhilashasthakur</t>
-  </si>
-  <si>
     <t>https://linkedin.com/in/indra-halim</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
+    <t>www.linkedin.com/in/shannon-blades</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/doris-x-wang</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/freddiexavier</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ryan-benedek/</t>
   </si>
   <si>
     <t>www.linkedin.com/in/juliawright1</t>
   </si>
   <si>
-    <t>linkedin.com/in/mariamainhardt</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/shannon-blades</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/doris-x-wang</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/freddiexavier</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ryan-benedek/</t>
-  </si>
-  <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Business Change Management: 5.0</t>
   </si>
   <si>
@@ -401,55 +401,55 @@
     <t>Project Management: 5.0, Strategic Planning: 5.0, Business Analysis: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Events Planning and Management: 5.0, Portfolio Management: 4.0</t>
+    <t>Events Planning and Management: 5.0, Project Management: 4.0, Strategic Planning: 4.0</t>
+  </si>
+  <si>
+    <t>Strategic Planning: 5.0, Business Analysis: 5.0, Development of User Requirements: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Understanding of Agile Principles: 5.0, Plan and Manage Agile Projects: 5.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Volunteering for a Non-profit Organisation: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Understanding of Agile Principles: 5.0, Plan and Manage Agile Projects: 5.0</t>
+    <t>Project Management: 5.0, Business Change Management: 5.0, Strategic Planning: 4.0</t>
+  </si>
+  <si>
+    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Portfolio Management: 5.0, Understanding of Agile Principles: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Portfolio Management: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Volunteering for a Non-profit Organisation: 5.0, Strategic Planning: 4.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Business Change Management: 5.0, Strategic Planning: 4.0</t>
-  </si>
-  <si>
-    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Portfolio Management: 5.0, Understanding of Agile Principles: 5.0</t>
-  </si>
-  <si>
     <t>Project Management: 5.0, Business Analysis: 5.0, Understanding of Agile Principles: 5.0</t>
   </si>
   <si>
     <t>Project Management: 5.0, Business Analysis: 5.0, Business Change Management: 4.0</t>
   </si>
   <si>
-    <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
-  </si>
-  <si>
     <t>Business Analysis: 7, Strategic Planning: 4, Business Change Management: 4</t>
   </si>
   <si>
     <t>Strategic Planning: 10, Volunteering for a Non-profit Organisation: 6, Project Management: 4</t>
   </si>
   <si>
+    <t>Business Change Management: 9</t>
+  </si>
+  <si>
+    <t>Events Planning and Management: 10, Strategic Planning: 8, Business Analysis: 2</t>
+  </si>
+  <si>
+    <t>Strategic Planning: 2, Development of User Requirements: 2</t>
+  </si>
+  <si>
     <t>Events Planning and Management: 10, Project Management: 4, Volunteering for a Non-profit Organisation: 4</t>
-  </si>
-  <si>
-    <t>Business Change Management: 9</t>
-  </si>
-  <si>
-    <t>Events Planning and Management: 10, Strategic Planning: 8, Business Analysis: 2</t>
-  </si>
-  <si>
-    <t>Strategic Planning: 2, Development of User Requirements: 2</t>
   </si>
   <si>
     <t>Volunteering for a Non-profit Organisation: 2</t>
@@ -501,15 +501,15 @@
     <t>Project Management, Strategic Planning, Volunteering for a Non-profit Organisation, Systems Integration (Business and Technical)</t>
   </si>
   <si>
+    <t>Business Change Management</t>
+  </si>
+  <si>
+    <t>Strategic Planning, Events Planning and Management</t>
+  </si>
+  <si>
     <t>Project Management, Volunteering for a Non-profit Organisation, Events Planning and Management</t>
   </si>
   <si>
-    <t>Business Change Management</t>
-  </si>
-  <si>
-    <t>Strategic Planning, Events Planning and Management</t>
-  </si>
-  <si>
     <t>Business Analysis, Volunteering for a Non-profit Organisation</t>
   </si>
   <si>
@@ -519,28 +519,28 @@
     <t>Emma  Voss | Jauhar Janjua</t>
   </si>
   <si>
-    <t xml:space="preserve">Haryanni Masarip | Yanika  Okaeva </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hadi Ahmadi | Ibrahim  Dani </t>
   </si>
   <si>
-    <t>Abby Thakur Satyanarayan | Indra Halim</t>
-  </si>
-  <si>
-    <t>Nadun Dhanushka | Julia Wright</t>
-  </si>
-  <si>
-    <t>Maria Mainhardt | Shannon Blades</t>
-  </si>
-  <si>
-    <t>Doris  Wang | Frederick Xavier</t>
-  </si>
-  <si>
-    <t>Lindsey Norris | Arvin Arikathota</t>
-  </si>
-  <si>
-    <t>Laetitia Callegari  | Ryan Benedek</t>
+    <t>Abby Thakur Satyanarayan | Jacqueline Shen</t>
+  </si>
+  <si>
+    <t>Dhruv Raniga | Nadun Dhanushka</t>
+  </si>
+  <si>
+    <t>Yanika  Okaeva  | Indra Halim</t>
+  </si>
+  <si>
+    <t>Shannon Blades | Doris  Wang</t>
+  </si>
+  <si>
+    <t>Frederick Xavier | Ryan Benedek</t>
+  </si>
+  <si>
+    <t>Julia Wright | Lindsey Norris</t>
+  </si>
+  <si>
+    <t>Laetitia Callegari  | Arvin Arikathota</t>
   </si>
   <si>
     <t>93.02 | 81.4</t>
@@ -549,28 +549,28 @@
     <t>92.96 | 91.11</t>
   </si>
   <si>
-    <t>90.0 | 86.32</t>
-  </si>
-  <si>
     <t>89.66 | 87.59</t>
   </si>
   <si>
-    <t>89.05 | 82.86</t>
-  </si>
-  <si>
-    <t>84.17 | 81.67</t>
-  </si>
-  <si>
-    <t>83.64 | 81.82</t>
-  </si>
-  <si>
-    <t>80.0 | 79.09</t>
-  </si>
-  <si>
-    <t>77.39 | 75.65</t>
-  </si>
-  <si>
-    <t>74.12 | 71.18</t>
+    <t>89.05 | 80.0</t>
+  </si>
+  <si>
+    <t>87.5 | 84.17</t>
+  </si>
+  <si>
+    <t>86.32 | 86.32</t>
+  </si>
+  <si>
+    <t>81.82 | 80.0</t>
+  </si>
+  <si>
+    <t>79.09 | 75.45</t>
+  </si>
+  <si>
+    <t>78.26 | 77.39</t>
+  </si>
+  <si>
+    <t>74.12 | 72.94</t>
   </si>
   <si>
     <t>10 | 0</t>
@@ -579,49 +579,49 @@
     <t>8 | 8</t>
   </si>
   <si>
+    <t>10 | 8</t>
+  </si>
+  <si>
+    <t>8 | 10</t>
+  </si>
+  <si>
     <t>10 | 10</t>
   </si>
   <si>
-    <t>10 | 8</t>
-  </si>
-  <si>
-    <t>8 | 10</t>
+    <t>8 | 0</t>
   </si>
   <si>
     <t>0 | 0</t>
   </si>
   <si>
-    <t>0 | 10</t>
-  </si>
-  <si>
     <t xml:space="preserve">PMP 1 (Sameh  Megally ) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 4); Business Change Management (PMP: 5.0/5, Required: 4). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nikki Gittins) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile. </t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Emma  Voss) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Haryanni Masarip) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Yanika  Okaeva ) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
     <t xml:space="preserve">PMP 1 (Hadi Ahmadi) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ibrahim  Dani ) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Abby Thakur Satyanarayan) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Indra Halim) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Julia Wright) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Maria Mainhardt) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Shannon Blades) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Lindsey Norris) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Analysis (PMP: 5.0/5, Required: 4); Technology Change Management (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Ryan Benedek) selected because: Strong skills in Business Analysis (PMP: 4.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
+    <t xml:space="preserve">PMP 1 (Abby Thakur Satyanarayan) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jacqueline Shen) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 8); Events Planning and Management (PMP: 5.0/5, Required: 10). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Dhruv Raniga) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 2); Development of User Requirements (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Yanika  Okaeva ) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Indra Halim) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Shannon Blades) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ryan Benedek) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Julia Wright) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Lindsey Norris) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Analysis (PMP: 5.0/5, Required: 4); Technology Change Management (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Business Analysis (PMP: 4.0/5, Required: 4). Extensive experience (8+ years). Complete professional profile. </t>
   </si>
   <si>
     <t>Name</t>
@@ -660,9 +660,6 @@
     <t>Shreya  Shah</t>
   </si>
   <si>
-    <t>Jacqueline Shen</t>
-  </si>
-  <si>
     <t>Peter Harrison</t>
   </si>
   <si>
@@ -699,9 +696,6 @@
     <t>www.linkedin.com/in/shreya-shah-s</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/jacqueline-shen-5b565917a/</t>
-  </si>
-  <si>
     <t>linkedin.com/in/aishwarya-rajendran2012</t>
   </si>
   <si>
@@ -720,9 +714,6 @@
     <t>Sydney Metro</t>
   </si>
   <si>
-    <t>Blue Yonder</t>
-  </si>
-  <si>
     <t>HOMES NSW</t>
   </si>
   <si>
@@ -753,9 +744,6 @@
     <t xml:space="preserve">Sustainability Consultant </t>
   </si>
   <si>
-    <t>marketing coordinator</t>
-  </si>
-  <si>
     <t>Program Manager</t>
   </si>
   <si>
@@ -786,9 +774,6 @@
     <t>1 - 3 Years</t>
   </si>
   <si>
-    <t>Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, PMO</t>
-  </si>
-  <si>
     <t>Software Implementation and/or Rollout, Strategic Planning, Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, Events Planning, Launch of Service</t>
   </si>
   <si>
@@ -808,9 +793,6 @@
   </si>
   <si>
     <t>Software Implementation and/or Rollout, Strategic Planning, Problem Analysis and Solutioning</t>
-  </si>
-  <si>
-    <t>Business Change Management or Change Related Initiatives, Problem Analysis and Solutioning, Events Planning</t>
   </si>
   <si>
     <t>Software Implementation and/or Rollout, Strategic Planning, Business Change Management or Change Related Initiatives, Fund Raising Initiatives, Events Planning, Lo</t>
@@ -1264,7 +1246,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="137.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
@@ -1548,10 +1530,10 @@
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1563,7 +1545,7 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
         <v>93</v>
@@ -1578,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="N6">
-        <v>90</v>
+        <v>89.66</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P6" t="s">
         <v>140</v>
       </c>
       <c r="Q6">
-        <v>3.96</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1601,10 +1583,10 @@
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1613,34 +1595,34 @@
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" t="s">
         <v>112</v>
       </c>
       <c r="L7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>86.31999999999999</v>
+        <v>87.59</v>
       </c>
       <c r="O7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P7" t="s">
         <v>140</v>
       </c>
       <c r="Q7">
-        <v>4.53</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1654,10 +1636,10 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1669,22 +1651,22 @@
         <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" t="s">
         <v>113</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8">
-        <v>89.66</v>
+        <v>89.05</v>
       </c>
       <c r="O8" t="s">
         <v>124</v>
@@ -1693,7 +1675,7 @@
         <v>141</v>
       </c>
       <c r="Q8">
-        <v>5.81</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1707,10 +1689,10 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1719,7 +1701,7 @@
         <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I9" t="s">
         <v>78</v>
@@ -1727,26 +1709,26 @@
       <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="3" t="s">
         <v>114</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N9">
-        <v>87.59</v>
+        <v>80</v>
       </c>
       <c r="O9" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s">
         <v>141</v>
       </c>
       <c r="Q9">
-        <v>5.07</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1760,10 +1742,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
         <v>48</v>
@@ -1780,26 +1762,26 @@
       <c r="J10" t="s">
         <v>97</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="3" t="s">
         <v>115</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>89.05</v>
+        <v>87.5</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P10" t="s">
         <v>142</v>
       </c>
       <c r="Q10">
-        <v>5.56</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1813,10 +1795,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
         <v>49</v>
@@ -1825,7 +1807,7 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
         <v>80</v>
@@ -1840,10 +1822,10 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>82.86</v>
+        <v>84.17</v>
       </c>
       <c r="O11" t="s">
         <v>129</v>
@@ -1852,7 +1834,7 @@
         <v>142</v>
       </c>
       <c r="Q11">
-        <v>5.68</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1866,7 +1848,7 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
@@ -1878,7 +1860,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
         <v>81</v>
@@ -1893,19 +1875,19 @@
         <v>10</v>
       </c>
       <c r="M12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>84.17</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="O12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P12" t="s">
         <v>143</v>
       </c>
       <c r="Q12">
-        <v>5.19</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1919,7 +1901,7 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
         <v>47</v>
@@ -1931,34 +1913,34 @@
         <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
         <v>100</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="3" t="s">
         <v>118</v>
       </c>
       <c r="L13">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N13">
-        <v>81.67</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="O13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P13" t="s">
         <v>143</v>
       </c>
       <c r="Q13">
-        <v>4.84</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1984,7 +1966,7 @@
         <v>70</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s">
         <v>101</v>
@@ -1999,7 +1981,7 @@
         <v>10</v>
       </c>
       <c r="N14">
-        <v>83.64</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="O14" t="s">
         <v>131</v>
@@ -2008,7 +1990,7 @@
         <v>144</v>
       </c>
       <c r="Q14">
-        <v>3.61</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -2034,22 +2016,22 @@
         <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s">
         <v>102</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>120</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N15">
-        <v>81.81999999999999</v>
+        <v>80</v>
       </c>
       <c r="O15" t="s">
         <v>132</v>
@@ -2058,7 +2040,7 @@
         <v>144</v>
       </c>
       <c r="Q15">
-        <v>4.68</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2087,7 +2069,7 @@
         <v>70</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J16" t="s">
         <v>103</v>
@@ -2099,10 +2081,10 @@
         <v>10</v>
       </c>
       <c r="M16">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N16">
-        <v>80</v>
+        <v>79.09</v>
       </c>
       <c r="O16" t="s">
         <v>133</v>
@@ -2111,7 +2093,7 @@
         <v>144</v>
       </c>
       <c r="Q16">
-        <v>3.83</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -2137,10 +2119,10 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J17" t="s">
         <v>104</v>
@@ -2155,7 +2137,7 @@
         <v>10</v>
       </c>
       <c r="N17">
-        <v>79.09</v>
+        <v>75.45</v>
       </c>
       <c r="O17" t="s">
         <v>134</v>
@@ -2164,7 +2146,7 @@
         <v>144</v>
       </c>
       <c r="Q17">
-        <v>4.73</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -2196,16 +2178,19 @@
         <v>74</v>
       </c>
       <c r="J18" t="s">
-        <v>95</v>
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>123</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N18">
-        <v>77.39</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="O18" t="s">
         <v>135</v>
@@ -2214,7 +2199,7 @@
         <v>145</v>
       </c>
       <c r="Q18">
-        <v>4.71</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -2243,10 +2228,10 @@
         <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -2255,10 +2240,10 @@
         <v>8</v>
       </c>
       <c r="N19">
-        <v>75.65000000000001</v>
+        <v>77.39</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="P19" t="s">
         <v>145</v>
@@ -2269,7 +2254,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -2308,7 +2293,7 @@
         <v>74.12</v>
       </c>
       <c r="O20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" t="s">
         <v>146</v>
@@ -2319,7 +2304,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2340,7 +2325,7 @@
         <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
         <v>88</v>
@@ -2348,39 +2333,37 @@
       <c r="J21" t="s">
         <v>107</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="L21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N21">
-        <v>71.18000000000001</v>
+        <v>72.94</v>
       </c>
       <c r="O21" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="P21" t="s">
         <v>146</v>
       </c>
       <c r="Q21">
-        <v>4.5</v>
+        <v>4.71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
     <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="K7" r:id="rId3"/>
-    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K9" r:id="rId3"/>
+    <hyperlink ref="K10" r:id="rId4"/>
     <hyperlink ref="K11" r:id="rId5"/>
     <hyperlink ref="K12" r:id="rId6"/>
-    <hyperlink ref="K16" r:id="rId7"/>
-    <hyperlink ref="K17" r:id="rId8"/>
-    <hyperlink ref="K21" r:id="rId9"/>
+    <hyperlink ref="K13" r:id="rId7"/>
+    <hyperlink ref="K15" r:id="rId8"/>
+    <hyperlink ref="K16" r:id="rId9"/>
+    <hyperlink ref="K17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2398,7 +2381,7 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="158.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -2516,7 +2499,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
         <v>161</v>
@@ -2542,10 +2525,7 @@
         <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D6" t="s">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>168</v>
@@ -2570,6 +2550,9 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
       <c r="E7" t="s">
         <v>169</v>
       </c>
@@ -2577,7 +2560,7 @@
         <v>179</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
         <v>196</v>
@@ -2597,7 +2580,7 @@
         <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H8" t="s">
         <v>197</v>
@@ -2620,7 +2603,7 @@
         <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
         <v>198</v>
@@ -2637,7 +2620,7 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2654,7 +2637,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2685,7 +2668,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2725,76 +2708,76 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
+        <v>207</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
       <c r="G2">
-        <v>3.61</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" t="s">
         <v>220</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G3">
-        <v>4.91</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B4" t="s">
-        <v>221</v>
+        <v>63</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="G4">
-        <v>2.2</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -2803,44 +2786,44 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>3.83</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G6">
-        <v>4.53</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2849,41 +2832,38 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G7">
-        <v>5.99</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="G8">
-        <v>5.07</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2892,21 +2872,21 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G9">
-        <v>4.71</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2915,86 +2895,89 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G10">
-        <v>3.96</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>209</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>239</v>
       </c>
       <c r="G11">
-        <v>4.32</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>117</v>
+        <v>222</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>229</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="G12">
-        <v>5.19</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>222</v>
+        <v>64</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>4.73</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B14" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B14" t="s">
         <v>223</v>
       </c>
       <c r="C14">
@@ -3004,222 +2987,219 @@
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="G14">
-        <v>3.15</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>122</v>
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G15">
-        <v>4.73</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B16" t="s">
-        <v>224</v>
+        <v>61</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G16">
-        <v>3.84</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G17">
-        <v>5.56</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>116</v>
+        <v>212</v>
+      </c>
+      <c r="B18" t="s">
+        <v>224</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G18">
-        <v>5.68</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19">
-        <v>4.68</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" t="s">
-        <v>225</v>
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G20">
-        <v>3.1</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G21">
-        <v>4.5</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G22">
-        <v>4.37</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>214</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>73</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="G23">
-        <v>4.94</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3228,248 +3208,228 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G24">
-        <v>3.99</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>215</v>
-      </c>
-      <c r="B25" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G25">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>93</v>
       </c>
       <c r="G26">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>217</v>
+        <v>50</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>89</v>
       </c>
       <c r="G27">
-        <v>2.86</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>218</v>
       </c>
+      <c r="B28" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="C28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>245</v>
       </c>
       <c r="G28">
-        <v>3.94</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>108</v>
+        <v>66</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="G29">
-        <v>5.04</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>228</v>
+        <v>52</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="F30" t="s">
-        <v>249</v>
+        <v>91</v>
       </c>
       <c r="G30">
-        <v>4.45</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
         <v>74</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G31">
-        <v>4.84</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
+        <v>54</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="C32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
         <v>74</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G32">
-        <v>6.25</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>66</v>
+        <v>58</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G33">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>95</v>
-      </c>
-      <c r="G34">
-        <v>5.81</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
     <hyperlink ref="B10" r:id="rId4"/>
     <hyperlink ref="B12" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B18" r:id="rId8"/>
-    <hyperlink ref="B21" r:id="rId9"/>
-    <hyperlink ref="B22" r:id="rId10"/>
-    <hyperlink ref="B29" r:id="rId11"/>
-    <hyperlink ref="B30" r:id="rId12"/>
-    <hyperlink ref="B34" r:id="rId13"/>
+    <hyperlink ref="B13" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B19" r:id="rId8"/>
+    <hyperlink ref="B20" r:id="rId9"/>
+    <hyperlink ref="B27" r:id="rId10"/>
+    <hyperlink ref="B28" r:id="rId11"/>
+    <hyperlink ref="B32" r:id="rId12"/>
+    <hyperlink ref="B33" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3477,7 +3437,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3494,13 +3454,13 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>11</v>
@@ -3512,87 +3472,87 @@
         <v>206</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
-        <v>3.61</v>
+        <v>4.91</v>
       </c>
       <c r="G2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>4.91</v>
+        <v>2.2</v>
       </c>
       <c r="G3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>3.83</v>
+      </c>
+      <c r="G4" t="s">
         <v>253</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>2.2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3601,41 +3561,41 @@
         <v>9</v>
       </c>
       <c r="F5">
-        <v>3.83</v>
+        <v>4.53</v>
       </c>
       <c r="G5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>4.53</v>
+        <v>5.99</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -3647,41 +3607,41 @@
         <v>10</v>
       </c>
       <c r="F7">
-        <v>5.99</v>
+        <v>5.07</v>
       </c>
       <c r="G7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>5.07</v>
+        <v>4.71</v>
       </c>
       <c r="G8" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
@@ -3693,18 +3653,18 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>4.71</v>
+        <v>4.32</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>70</v>
@@ -3716,90 +3676,90 @@
         <v>10</v>
       </c>
       <c r="F10">
-        <v>3.96</v>
+        <v>5.19</v>
       </c>
       <c r="G10" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>4.32</v>
+        <v>3.5</v>
       </c>
       <c r="G11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>10</v>
       </c>
       <c r="F12">
-        <v>5.19</v>
+        <v>3.15</v>
       </c>
       <c r="G12" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>209</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>3.5</v>
+        <v>4.73</v>
       </c>
       <c r="G13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>71</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -3808,64 +3768,64 @@
         <v>10</v>
       </c>
       <c r="F14">
-        <v>3.15</v>
+        <v>3.84</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>4.73</v>
+        <v>5.56</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>3.84</v>
+        <v>5.68</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -3874,159 +3834,159 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>5.56</v>
+        <v>4.68</v>
       </c>
       <c r="G17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18">
-        <v>5.68</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
       <c r="F19">
-        <v>4.68</v>
+        <v>4.5</v>
       </c>
       <c r="G19" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>71</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>3.1</v>
+        <v>4.37</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F21">
-        <v>4.5</v>
+        <v>4.94</v>
       </c>
       <c r="G21" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c r="F22">
-        <v>4.37</v>
+        <v>3.99</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>214</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>4.94</v>
+        <v>2.48</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C24" t="s">
         <v>70</v>
@@ -4038,41 +3998,41 @@
         <v>9</v>
       </c>
       <c r="F24">
-        <v>3.99</v>
+        <v>3.37</v>
       </c>
       <c r="G24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25">
-        <v>2.48</v>
+        <v>2.86</v>
       </c>
       <c r="G25" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -4081,197 +4041,174 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26">
-        <v>3.37</v>
+        <v>3.94</v>
       </c>
       <c r="G26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>217</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>70</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>2.86</v>
+        <v>5.04</v>
       </c>
       <c r="G27" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>218</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>3.94</v>
+        <v>4.45</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
         <v>70</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29">
-        <v>5.04</v>
+        <v>4.84</v>
       </c>
       <c r="G29" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>254</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>4.45</v>
+        <v>6.25</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
         <v>70</v>
       </c>
       <c r="D31">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>4.84</v>
+        <v>4.71</v>
       </c>
       <c r="G31" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>70</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>6.25</v>
+        <v>5.81</v>
       </c>
       <c r="G32" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>70</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34">
-        <v>10</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>5.81</v>
-      </c>
-      <c r="G34" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4296,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>147</v>
@@ -4305,10 +4242,10 @@
         <v>148</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4316,10 +4253,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -4364,10 +4301,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
@@ -4381,10 +4318,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -4415,7 +4352,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -4449,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>

--- a/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
+++ b/Output/PMI_PMP_Charity_Matching_Results_Enhanced.xlsx
@@ -12,13 +12,15 @@
     <sheet name="LinkedIn_Analysis" sheetId="3" r:id="rId3"/>
     <sheet name="Enhanced_PMP_Profiles" sheetId="4" r:id="rId4"/>
     <sheet name="Charity_Projects" sheetId="5" r:id="rId5"/>
+    <sheet name="Backup_Candidates" sheetId="6" r:id="rId6"/>
+    <sheet name="Non_Selected_Candidates" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="297">
   <si>
     <t>Charity_Organization</t>
   </si>
@@ -71,90 +73,90 @@
     <t>Overall_PMP_Rating</t>
   </si>
   <si>
+    <t>Drummoyne Community Centre Inc</t>
+  </si>
+  <si>
+    <t>GFG Foundation</t>
+  </si>
+  <si>
+    <t>Sir David Martin Foundation</t>
+  </si>
+  <si>
+    <t>MTC Future Ready</t>
+  </si>
+  <si>
+    <t>Cleaning Accountability Framework (CAF)</t>
+  </si>
+  <si>
     <t>Legacy Club Services</t>
   </si>
   <si>
-    <t>Sir David Martin Foundation</t>
-  </si>
-  <si>
-    <t>MTC Future Ready</t>
-  </si>
-  <si>
     <t>Property Industry Foundation</t>
   </si>
   <si>
-    <t>Cleaning Accountability Framework (CAF)</t>
-  </si>
-  <si>
-    <t>Drummoyne Community Centre Inc</t>
-  </si>
-  <si>
-    <t>GFG Foundation</t>
-  </si>
-  <si>
     <t>Rev. Bill Crews Foundation</t>
   </si>
   <si>
     <t>Total Environment Centre</t>
   </si>
   <si>
+    <t>50th Anniversary of DCC</t>
+  </si>
+  <si>
+    <t>Youth AOD Knowledge Hub</t>
+  </si>
+  <si>
+    <t>Implementation of PMO</t>
+  </si>
+  <si>
+    <t>Website overhaul</t>
+  </si>
+  <si>
     <t>Business ERP</t>
   </si>
   <si>
-    <t>Youth AOD Knowledge Hub</t>
-  </si>
-  <si>
-    <t>Implementation of PMO</t>
+    <t>Building Projects and Working bee Plans</t>
+  </si>
+  <si>
+    <t>To Be Confirmed</t>
   </si>
   <si>
     <t>Events management</t>
   </si>
   <si>
-    <t>Website overhaul</t>
-  </si>
-  <si>
-    <t>50th Anniversary of DCC</t>
-  </si>
-  <si>
-    <t>To Be Confirmed</t>
-  </si>
-  <si>
     <t>Strategic Focus &amp; Capacity Alignment</t>
   </si>
   <si>
-    <t>Building Projects and Working bee Plans</t>
+    <t>Project plan for anniversary. Includes various projects /activities within.</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>A comprehensive national online resource hub that connects young people experiencing alcohol and oth...</t>
+  </si>
+  <si>
+    <t>Guidance/advice on implementation of PMO</t>
+  </si>
+  <si>
+    <t>Our website needs to be overhauled/rebuilt</t>
   </si>
   <si>
     <t xml:space="preserve">implementation of new accounting software </t>
   </si>
   <si>
-    <t>A comprehensive national online resource hub that connects young people experiencing alcohol and oth...</t>
-  </si>
-  <si>
-    <t>Guidance/advice on implementation of PMO</t>
+    <t>We currently organise a range of small to medium building projects for frontline charities but inter...</t>
+  </si>
+  <si>
+    <t>We are yet to finalise the best initiative or project</t>
   </si>
   <si>
     <t>Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver,...</t>
   </si>
   <si>
-    <t>Our website needs to be overhauled/rebuilt</t>
-  </si>
-  <si>
-    <t>Project plan for anniversary. Includes various projects /activities within.</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>We are yet to finalise the best initiative or project</t>
-  </si>
-  <si>
     <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on...</t>
   </si>
   <si>
-    <t>We currently organise a range of small to medium building projects for frontline charities but inter...</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -170,22 +172,52 @@
     <t>PMP 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Yanika  Okaeva </t>
+  </si>
+  <si>
+    <t>Indra Halim</t>
+  </si>
+  <si>
+    <t>Shannon Blades</t>
+  </si>
+  <si>
+    <t>Doris  Wang</t>
+  </si>
+  <si>
+    <t>Emma  Voss</t>
+  </si>
+  <si>
+    <t>Jauhar Janjua</t>
+  </si>
+  <si>
+    <t>Hadi Ahmadi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim  Dani </t>
+  </si>
+  <si>
+    <t>Dhruv Raniga</t>
+  </si>
+  <si>
+    <t>Nadun Dhanushka</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sameh  Megally </t>
   </si>
   <si>
     <t>Nikki Gittins</t>
   </si>
   <si>
-    <t>Emma  Voss</t>
-  </si>
-  <si>
-    <t>Jauhar Janjua</t>
-  </si>
-  <si>
-    <t>Hadi Ahmadi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibrahim  Dani </t>
+    <t xml:space="preserve">Laetitia Callegari </t>
+  </si>
+  <si>
+    <t>Lindsey Norris</t>
+  </si>
+  <si>
+    <t>Frederick Xavier</t>
+  </si>
+  <si>
+    <t>Ryan Benedek</t>
   </si>
   <si>
     <t>Abby Thakur Satyanarayan</t>
@@ -194,46 +226,43 @@
     <t>Jacqueline Shen</t>
   </si>
   <si>
-    <t>Dhruv Raniga</t>
-  </si>
-  <si>
-    <t>Nadun Dhanushka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yanika  Okaeva </t>
-  </si>
-  <si>
-    <t>Indra Halim</t>
-  </si>
-  <si>
-    <t>Shannon Blades</t>
-  </si>
-  <si>
-    <t>Doris  Wang</t>
-  </si>
-  <si>
-    <t>Frederick Xavier</t>
-  </si>
-  <si>
-    <t>Ryan Benedek</t>
-  </si>
-  <si>
     <t>Julia Wright</t>
   </si>
   <si>
-    <t>Lindsey Norris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laetitia Callegari </t>
-  </si>
-  <si>
     <t>Arvin Arikathota</t>
   </si>
   <si>
+    <t>4 - 8 Years</t>
+  </si>
+  <si>
     <t>More than 8 Years</t>
   </si>
   <si>
-    <t>4 - 8 Years</t>
+    <t xml:space="preserve">Quikky Move </t>
+  </si>
+  <si>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t>Sierra Bravo Group</t>
+  </si>
+  <si>
+    <t>AGSM/ Suncorp Bank</t>
+  </si>
+  <si>
+    <t>Woolworths</t>
+  </si>
+  <si>
+    <t>HellermannTyton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sydney University </t>
+  </si>
+  <si>
+    <t>Clarté</t>
+  </si>
+  <si>
+    <t>AmplifyD</t>
   </si>
   <si>
     <t xml:space="preserve">Sydney Water </t>
@@ -242,13 +271,13 @@
     <t>Atlassian</t>
   </si>
   <si>
-    <t>Woolworths</t>
-  </si>
-  <si>
-    <t>HellermannTyton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sydney University </t>
+    <t xml:space="preserve">PrimeScope </t>
+  </si>
+  <si>
+    <t>Canva</t>
+  </si>
+  <si>
+    <t>ACM</t>
   </si>
   <si>
     <t xml:space="preserve">MUFG Retirement Services </t>
@@ -257,52 +286,52 @@
     <t>Blue Yonder</t>
   </si>
   <si>
-    <t>Clarté</t>
-  </si>
-  <si>
-    <t>AmplifyD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quikky Move </t>
-  </si>
-  <si>
-    <t>Livingstone</t>
-  </si>
-  <si>
-    <t>Sierra Bravo Group</t>
-  </si>
-  <si>
-    <t>AGSM/ Suncorp Bank</t>
-  </si>
-  <si>
-    <t>Canva</t>
-  </si>
-  <si>
-    <t>ACM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimeScope </t>
-  </si>
-  <si>
     <t>Accenture</t>
   </si>
   <si>
+    <t>Project manager</t>
+  </si>
+  <si>
+    <t>Managing Partner, Sales Operations</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
+  </si>
+  <si>
+    <t>Stock Loss Manager, Partnerships</t>
+  </si>
+  <si>
+    <t>Project Engineer</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lecturer </t>
+  </si>
+  <si>
+    <t>Strategic Design Consultant</t>
+  </si>
+  <si>
+    <t>Delivery Consultant</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cost Manager </t>
   </si>
   <si>
     <t xml:space="preserve">Snr Principle Program Manager [Technical] </t>
   </si>
   <si>
-    <t>Stock Loss Manager, Partnerships</t>
-  </si>
-  <si>
-    <t>Project Engineer</t>
-  </si>
-  <si>
-    <t>Project Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lecturer </t>
+    <t>Program Director</t>
+  </si>
+  <si>
+    <t>Staff Technical Program Manager</t>
+  </si>
+  <si>
+    <t>Project Controls Specialist</t>
   </si>
   <si>
     <t xml:space="preserve">Senior Project Manager </t>
@@ -311,52 +340,49 @@
     <t>marketing coordinator</t>
   </si>
   <si>
-    <t>Strategic Design Consultant</t>
-  </si>
-  <si>
-    <t>Delivery Consultant</t>
-  </si>
-  <si>
-    <t>Project manager</t>
-  </si>
-  <si>
-    <t>Managing Partner, Sales Operations</t>
-  </si>
-  <si>
-    <t>Consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBA candidate/ Project Manager/ Senior Business Analyst </t>
-  </si>
-  <si>
-    <t>Staff Technical Program Manager</t>
-  </si>
-  <si>
-    <t>Project Controls Specialist</t>
-  </si>
-  <si>
     <t xml:space="preserve">Head of Transformation - Smaart Enablement </t>
   </si>
   <si>
-    <t>Program Director</t>
-  </si>
-  <si>
     <t>Delivery Lead</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/yanika-okaeva</t>
+  </si>
+  <si>
+    <t>https://linkedin.com/in/indra-halim</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/shannon-blades</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/doris-x-wang</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/emma-voss-07a91341</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/jauhar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
+  </si>
+  <si>
+    <t>Linkedin.com/in/ibrahimdani</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dhruvraniga/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/in/sameh-megally-8aa66a7b?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/emma-voss-07a91341</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/jauhar</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/hadiahmadipmp/</t>
-  </si>
-  <si>
-    <t>Linkedin.com/in/ibrahimdani</t>
+    <t>https://www.linkedin.com/in/freddiexavier</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ryan-benedek/</t>
   </si>
   <si>
     <t>www.linkedin.com/in/abhilashasthakur</t>
@@ -365,100 +391,76 @@
     <t>https://www.linkedin.com/in/jacqueline-shen-5b565917a/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/dhruvraniga/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/nadun-dhanushka/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/yanika-okaeva</t>
-  </si>
-  <si>
-    <t>https://linkedin.com/in/indra-halim</t>
-  </si>
-  <si>
-    <t>www.linkedin.com/in/shannon-blades</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/doris-x-wang</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/freddiexavier</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ryan-benedek/</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/juliawright1</t>
   </si>
   <si>
+    <t>Project Management: 5.0, Strategic Planning: 5.0, Volunteering for a Non-profit Organisation: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Understanding of Agile Principles: 5.0, Plan and Manage Agile Projects: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Business Change Management: 5.0, Strategic Planning: 4.0</t>
+  </si>
+  <si>
+    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
+  </si>
+  <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Business Change Management: 5.0</t>
   </si>
   <si>
+    <t>Project Management: 5.0, Strategic Planning: 5.0, Business Analysis: 5.0</t>
+  </si>
+  <si>
+    <t>Strategic Planning: 5.0, Business Analysis: 5.0, Development of User Requirements: 5.0</t>
+  </si>
+  <si>
     <t>Project Management: 5.0, Business Change Management: 5.0, Business Analysis: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Strategic Planning: 5.0, Business Analysis: 5.0</t>
+    <t>Project Management: 5.0, Business Analysis: 5.0, Business Change Management: 4.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Business Analysis: 5.0, Understanding of Agile Principles: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 5.0, Portfolio Management: 5.0, Understanding of Agile Principles: 5.0</t>
+  </si>
+  <si>
+    <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
   </si>
   <si>
     <t>Events Planning and Management: 5.0, Project Management: 4.0, Strategic Planning: 4.0</t>
   </si>
   <si>
-    <t>Strategic Planning: 5.0, Business Analysis: 5.0, Development of User Requirements: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Understanding of Agile Principles: 5.0, Plan and Manage Agile Projects: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Strategic Planning: 5.0, Volunteering for a Non-profit Organisation: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Business Change Management: 5.0, Strategic Planning: 4.0</t>
-  </si>
-  <si>
-    <t>Business Analysis: 5.0, Development of User Requirements: 5.0, Project Management: 3.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Portfolio Management: 5.0, Understanding of Agile Principles: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 4.0, Business Change Management: 4.0, Business Analysis: 4.0</t>
-  </si>
-  <si>
     <t>Project Management: 5.0, Strategic Planning: 5.0, Portfolio Management: 5.0</t>
   </si>
   <si>
-    <t>Project Management: 5.0, Business Analysis: 5.0, Understanding of Agile Principles: 5.0</t>
-  </si>
-  <si>
-    <t>Project Management: 5.0, Business Analysis: 5.0, Business Change Management: 4.0</t>
+    <t>Events Planning and Management: 10, Project Management: 4, Volunteering for a Non-profit Organisation: 4</t>
+  </si>
+  <si>
+    <t>Volunteering for a Non-profit Organisation: 2</t>
+  </si>
+  <si>
+    <t>Strategic Planning: 10, Volunteering for a Non-profit Organisation: 6, Project Management: 4</t>
+  </si>
+  <si>
+    <t>Business Change Management: 9</t>
+  </si>
+  <si>
+    <t>Strategic Planning: 2, Development of User Requirements: 2</t>
   </si>
   <si>
     <t>Business Analysis: 7, Strategic Planning: 4, Business Change Management: 4</t>
   </si>
   <si>
-    <t>Strategic Planning: 10, Volunteering for a Non-profit Organisation: 6, Project Management: 4</t>
-  </si>
-  <si>
-    <t>Business Change Management: 9</t>
+    <t>Business Analysis: 4, Volunteering for a Non-profit Organisation: 4, Strategic Planning: 2</t>
   </si>
   <si>
     <t>Events Planning and Management: 10, Strategic Planning: 8, Business Analysis: 2</t>
   </si>
   <si>
-    <t>Strategic Planning: 2, Development of User Requirements: 2</t>
-  </si>
-  <si>
-    <t>Events Planning and Management: 10, Project Management: 4, Volunteering for a Non-profit Organisation: 4</t>
-  </si>
-  <si>
-    <t>Volunteering for a Non-profit Organisation: 2</t>
-  </si>
-  <si>
     <t>Strategic Planning: 10, Events Planning and Management: 4, Project Management: 2</t>
-  </si>
-  <si>
-    <t>Business Analysis: 4, Volunteering for a Non-profit Organisation: 4, Strategic Planning: 2</t>
   </si>
   <si>
     <t>Organization</t>
@@ -486,142 +488,142 @@
 Building on our Phase 1 work with the Alcohol and Drug Foundation focused on identifying youth-specific AOD services in Australia, we aim to transform how young Australians access AOD support by creating a centralised, user-friendly platform that guides them to appropriate local services and resources.</t>
   </si>
   <si>
+    <t xml:space="preserve">We currently organise a range of small to medium building projects for frontline charities but internally we do not have any expertise on project building management. Having a template or system to guide us would be great. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Strategies to promote sustainable fundraising in alignment with our overall strategic plan: Deliver, Amplify, Transform. </t>
   </si>
   <si>
     <t>TEC staff are stretched across too many roles and tasks, often working in the project rather than on it. Limited leadership and management capacity mean that opportunities are sometimes pursued without clear prioritisation, leading to overstretch, inefficiency, and reduced impact.</t>
   </si>
   <si>
-    <t xml:space="preserve">We currently organise a range of small to medium building projects for frontline charities but internally we do not have any expertise on project building management. Having a template or system to guide us would be great. </t>
+    <t>Project Management, Volunteering for a Non-profit Organisation, Events Planning and Management</t>
+  </si>
+  <si>
+    <t>Project Management, Strategic Planning, Volunteering for a Non-profit Organisation, Systems Integration (Business and Technical)</t>
+  </si>
+  <si>
+    <t>Business Change Management</t>
   </si>
   <si>
     <t>Strategic Planning, Business Change Management, Business Analysis, Technology Change Management, Planning &amp; Management of the Implementation of New Software Solutions</t>
   </si>
   <si>
-    <t>Project Management, Strategic Planning, Volunteering for a Non-profit Organisation, Systems Integration (Business and Technical)</t>
-  </si>
-  <si>
-    <t>Business Change Management</t>
+    <t>Business Analysis, Volunteering for a Non-profit Organisation</t>
   </si>
   <si>
     <t>Strategic Planning, Events Planning and Management</t>
   </si>
   <si>
-    <t>Project Management, Volunteering for a Non-profit Organisation, Events Planning and Management</t>
-  </si>
-  <si>
-    <t>Business Analysis, Volunteering for a Non-profit Organisation</t>
+    <t>Yanika  Okaeva  | Indra Halim</t>
+  </si>
+  <si>
+    <t>Shannon Blades | Doris  Wang</t>
+  </si>
+  <si>
+    <t>Emma  Voss | Jauhar Janjua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hadi Ahmadi | Ibrahim  Dani </t>
+  </si>
+  <si>
+    <t>Dhruv Raniga | Nadun Dhanushka</t>
   </si>
   <si>
     <t>Sameh  Megally  | Nikki Gittins</t>
   </si>
   <si>
-    <t>Emma  Voss | Jauhar Janjua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hadi Ahmadi | Ibrahim  Dani </t>
+    <t>Laetitia Callegari  | Lindsey Norris</t>
+  </si>
+  <si>
+    <t>Frederick Xavier | Ryan Benedek</t>
   </si>
   <si>
     <t>Abby Thakur Satyanarayan | Jacqueline Shen</t>
   </si>
   <si>
-    <t>Dhruv Raniga | Nadun Dhanushka</t>
-  </si>
-  <si>
-    <t>Yanika  Okaeva  | Indra Halim</t>
-  </si>
-  <si>
-    <t>Shannon Blades | Doris  Wang</t>
-  </si>
-  <si>
-    <t>Frederick Xavier | Ryan Benedek</t>
-  </si>
-  <si>
-    <t>Julia Wright | Lindsey Norris</t>
-  </si>
-  <si>
-    <t>Laetitia Callegari  | Arvin Arikathota</t>
+    <t>Julia Wright | Arvin Arikathota</t>
+  </si>
+  <si>
+    <t>86.32 | 86.32</t>
+  </si>
+  <si>
+    <t>81.82 | 80.0</t>
+  </si>
+  <si>
+    <t>92.96 | 91.11</t>
+  </si>
+  <si>
+    <t>89.66 | 87.59</t>
+  </si>
+  <si>
+    <t>87.5 | 84.17</t>
   </si>
   <si>
     <t>93.02 | 81.4</t>
   </si>
   <si>
-    <t>92.96 | 91.11</t>
-  </si>
-  <si>
-    <t>89.66 | 87.59</t>
+    <t>74.12 | 74.12</t>
+  </si>
+  <si>
+    <t>79.09 | 75.45</t>
   </si>
   <si>
     <t>89.05 | 80.0</t>
   </si>
   <si>
-    <t>87.5 | 84.17</t>
-  </si>
-  <si>
-    <t>86.32 | 86.32</t>
-  </si>
-  <si>
-    <t>81.82 | 80.0</t>
-  </si>
-  <si>
-    <t>79.09 | 75.45</t>
-  </si>
-  <si>
-    <t>78.26 | 77.39</t>
-  </si>
-  <si>
-    <t>74.12 | 72.94</t>
+    <t>78.26 | 75.65</t>
+  </si>
+  <si>
+    <t>10 | 10</t>
+  </si>
+  <si>
+    <t>8 | 10</t>
+  </si>
+  <si>
+    <t>8 | 8</t>
+  </si>
+  <si>
+    <t>10 | 8</t>
   </si>
   <si>
     <t>10 | 0</t>
   </si>
   <si>
-    <t>8 | 8</t>
-  </si>
-  <si>
-    <t>10 | 8</t>
-  </si>
-  <si>
-    <t>8 | 10</t>
-  </si>
-  <si>
-    <t>10 | 10</t>
+    <t>0 | 0</t>
   </si>
   <si>
     <t>8 | 0</t>
   </si>
   <si>
-    <t>0 | 0</t>
+    <t xml:space="preserve">PMP 1 (Yanika  Okaeva ) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Indra Halim) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Shannon Blades) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Emma  Voss) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Hadi Ahmadi) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ibrahim  Dani ) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Dhruv Raniga) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 2); Development of User Requirements (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Sameh  Megally ) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 4); Business Change Management (PMP: 5.0/5, Required: 4). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nikki Gittins) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 4); Business Analysis (PMP: 5.0/5, Required: 7). Extensive experience (8+ years). Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Emma  Voss) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jauhar Janjua) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Hadi Ahmadi) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ibrahim  Dani ) selected because: Strong skills in Business Change Management (PMP: 5.0/5, Required: 9). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
+    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Analysis (PMP: 5.0/5, Required: 4); Technology Change Management (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Lindsey Norris) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Business Analysis (PMP: 5.0/5, Required: 4). Extensive experience (8+ years). Complete professional profile. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PMP 1 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ryan Benedek) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
     <t xml:space="preserve">PMP 1 (Abby Thakur Satyanarayan) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 8); Business Analysis (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Jacqueline Shen) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 8); Events Planning and Management (PMP: 5.0/5, Required: 10). High-quality LinkedIn profile. Complete professional profile. </t>
   </si>
   <si>
-    <t xml:space="preserve">PMP 1 (Dhruv Raniga) selected because: Strong skills in Strategic Planning (PMP: 5.0/5, Required: 2); Development of User Requirements (PMP: 5.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Nadun Dhanushka) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Development of User Requirements (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Yanika  Okaeva ) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Indra Halim) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 4); Volunteering for a Non-profit Organisation (PMP: 5.0/5, Required: 4). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Shannon Blades) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Doris  Wang) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Frederick Xavier) selected because: Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Ryan Benedek) selected because: Strong skills in Volunteering for a Non-profit Organisation (PMP: 4.0/5, Required: 2). High-quality LinkedIn profile. Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Julia Wright) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Lindsey Norris) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMP 1 (Laetitia Callegari ) selected because: Strong skills in Business Analysis (PMP: 5.0/5, Required: 4); Technology Change Management (PMP: 4.0/5, Required: 2). Extensive experience (8+ years). Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Strategic Planning (PMP: 4.0/5, Required: 2); Business Analysis (PMP: 4.0/5, Required: 4). Extensive experience (8+ years). Complete professional profile. </t>
+    <t xml:space="preserve">PMP 1 (Julia Wright) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 5.0/5, Required: 10). Extensive experience (8+ years). High-quality LinkedIn profile. Complete professional profile.  | PMP 2 (Arvin Arikathota) selected because: Strong skills in Project Management (PMP: 5.0/5, Required: 2); Strategic Planning (PMP: 4.0/5, Required: 10). Extensive experience (8+ years). Complete professional profile. </t>
   </si>
   <si>
     <t>Name</t>
@@ -853,6 +855,63 @@
   </si>
   <si>
     <t>Complexity</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Best_Match</t>
+  </si>
+  <si>
+    <t>Best_Score</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>neha_purohit08@outlook.com</t>
+  </si>
+  <si>
+    <t>reddysuresh27@gmail.com</t>
+  </si>
+  <si>
+    <t>reddyshailu24@gmail.com</t>
+  </si>
+  <si>
+    <t>shreya.shah@student.unsw.edu.au</t>
+  </si>
+  <si>
+    <t>pharris3@optusnet.com.au</t>
+  </si>
+  <si>
+    <t>carolmelo.pm@gmail.com</t>
+  </si>
+  <si>
+    <t>ivonne.portoc@gmail.com</t>
+  </si>
+  <si>
+    <t>RDA.JOHN@gmail.com</t>
+  </si>
+  <si>
+    <t>achintyah619@gmail.com</t>
+  </si>
+  <si>
+    <t>dsookharee@northrop.com.au</t>
+  </si>
+  <si>
+    <t>Qualified - awaiting assignment</t>
+  </si>
+  <si>
+    <t>Backup Candidate</t>
+  </si>
+  <si>
+    <t>mirna.alemadi@gmail.com</t>
+  </si>
+  <si>
+    <t>aishwarya.rajendran2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Non-selected</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1383,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
         <v>48</v>
@@ -1348,10 +1407,10 @@
         <v>10</v>
       </c>
       <c r="M2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2">
-        <v>93.02</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="O2" t="s">
         <v>124</v>
@@ -1360,7 +1419,7 @@
         <v>138</v>
       </c>
       <c r="Q2">
-        <v>5.04</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1377,7 +1436,7 @@
         <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
         <v>49</v>
@@ -1394,14 +1453,17 @@
       <c r="J3" t="s">
         <v>90</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="L3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N3">
-        <v>81.40000000000001</v>
+        <v>86.31999999999999</v>
       </c>
       <c r="O3" t="s">
         <v>125</v>
@@ -1410,24 +1472,21 @@
         <v>138</v>
       </c>
       <c r="Q3">
-        <v>4.94</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -1436,7 +1495,7 @@
         <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
         <v>74</v>
@@ -1445,42 +1504,39 @@
         <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
       <c r="M4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>92.95999999999999</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="O4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
         <v>139</v>
       </c>
       <c r="Q4">
-        <v>6.25</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -1489,7 +1545,7 @@
         <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
         <v>75</v>
@@ -1497,26 +1553,26 @@
       <c r="J5" t="s">
         <v>92</v>
       </c>
-      <c r="K5" t="s">
-        <v>110</v>
+      <c r="K5" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N5">
-        <v>91.11</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P5" t="s">
         <v>139</v>
       </c>
       <c r="Q5">
-        <v>5.99</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1524,16 +1580,16 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1542,34 +1598,34 @@
         <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>111</v>
+      <c r="K6" t="s">
+        <v>112</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6">
-        <v>89.66</v>
+        <v>92.95999999999999</v>
       </c>
       <c r="O6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P6" t="s">
         <v>140</v>
       </c>
       <c r="Q6">
-        <v>5.81</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1577,16 +1633,16 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
         <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -1595,16 +1651,16 @@
         <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s">
         <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1613,16 +1669,16 @@
         <v>10</v>
       </c>
       <c r="N7">
-        <v>87.59</v>
+        <v>91.11</v>
       </c>
       <c r="O7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="P7" t="s">
         <v>140</v>
       </c>
       <c r="Q7">
-        <v>5.07</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1630,16 +1686,16 @@
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>48</v>
@@ -1648,34 +1704,34 @@
         <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
         <v>95</v>
       </c>
-      <c r="K8" t="s">
-        <v>113</v>
+      <c r="K8" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>89.05</v>
+        <v>89.66</v>
       </c>
       <c r="O8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P8" t="s">
         <v>141</v>
       </c>
       <c r="Q8">
-        <v>5.56</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1683,16 +1739,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
         <v>49</v>
@@ -1709,26 +1765,26 @@
       <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>114</v>
+      <c r="K9" t="s">
+        <v>115</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>80</v>
+        <v>87.59</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P9" t="s">
         <v>141</v>
       </c>
       <c r="Q9">
-        <v>4.37</v>
+        <v>5.07</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1736,7 +1792,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -1754,7 +1810,7 @@
         <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -1763,7 +1819,7 @@
         <v>97</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1775,7 +1831,7 @@
         <v>87.5</v>
       </c>
       <c r="O10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s">
         <v>142</v>
@@ -1789,7 +1845,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>39</v>
@@ -1807,7 +1863,7 @@
         <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
         <v>80</v>
@@ -1816,7 +1872,7 @@
         <v>98</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11">
         <v>10</v>
@@ -1828,7 +1884,7 @@
         <v>84.17</v>
       </c>
       <c r="O11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P11" t="s">
         <v>142</v>
@@ -1842,7 +1898,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1851,7 +1907,7 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>48</v>
@@ -1869,25 +1925,25 @@
         <v>99</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L12">
         <v>10</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12">
-        <v>86.31999999999999</v>
+        <v>93.02</v>
       </c>
       <c r="O12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s">
         <v>143</v>
       </c>
       <c r="Q12">
-        <v>4.53</v>
+        <v>5.04</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1895,7 +1951,7 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>40</v>
@@ -1904,7 +1960,7 @@
         <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
         <v>49</v>
@@ -1921,32 +1977,32 @@
       <c r="J13" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="L13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13">
-        <v>86.31999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="O13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P13" t="s">
         <v>143</v>
       </c>
       <c r="Q13">
-        <v>5.68</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>23</v>
       </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" t="s">
         <v>41</v>
       </c>
@@ -1963,7 +2019,7 @@
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I14" t="s">
         <v>83</v>
@@ -1971,32 +2027,32 @@
       <c r="J14" t="s">
         <v>101</v>
       </c>
-      <c r="K14" t="s">
-        <v>119</v>
-      </c>
       <c r="L14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N14">
-        <v>81.81999999999999</v>
+        <v>74.12</v>
       </c>
       <c r="O14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P14" t="s">
         <v>144</v>
       </c>
       <c r="Q14">
-        <v>4.68</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
         <v>23</v>
       </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
@@ -2013,34 +2069,31 @@
         <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N15">
-        <v>80</v>
+        <v>74.12</v>
       </c>
       <c r="O15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P15" t="s">
         <v>144</v>
       </c>
       <c r="Q15">
-        <v>3.83</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -2066,16 +2119,16 @@
         <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L16">
         <v>10</v>
@@ -2087,10 +2140,10 @@
         <v>79.09</v>
       </c>
       <c r="O16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>4.73</v>
@@ -2119,16 +2172,16 @@
         <v>65</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L17">
         <v>10</v>
@@ -2140,10 +2193,10 @@
         <v>75.45</v>
       </c>
       <c r="O17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="Q17">
         <v>4.5</v>
@@ -2151,7 +2204,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
@@ -2163,7 +2216,7 @@
         <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2172,39 +2225,39 @@
         <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I18" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L18">
         <v>8</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N18">
-        <v>78.26000000000001</v>
+        <v>89.05</v>
       </c>
       <c r="O18" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="P18" t="s">
         <v>145</v>
       </c>
       <c r="Q18">
-        <v>4.84</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>33</v>
@@ -2216,7 +2269,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>49</v>
@@ -2228,19 +2281,22 @@
         <v>70</v>
       </c>
       <c r="I19" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N19">
-        <v>77.39</v>
+        <v>80</v>
       </c>
       <c r="O19" t="s">
         <v>136</v>
@@ -2249,12 +2305,12 @@
         <v>145</v>
       </c>
       <c r="Q19">
-        <v>4.71</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
@@ -2263,7 +2319,7 @@
         <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>47</v>
@@ -2275,22 +2331,25 @@
         <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s">
         <v>106</v>
       </c>
+      <c r="K20" t="s">
+        <v>123</v>
+      </c>
       <c r="L20">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N20">
-        <v>74.12</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="O20" t="s">
         <v>137</v>
@@ -2299,12 +2358,12 @@
         <v>146</v>
       </c>
       <c r="Q20">
-        <v>4.32</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -2313,7 +2372,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
         <v>47</v>
@@ -2325,7 +2384,7 @@
         <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I21" t="s">
         <v>88</v>
@@ -2340,10 +2399,10 @@
         <v>8</v>
       </c>
       <c r="N21">
-        <v>72.94</v>
+        <v>75.65000000000001</v>
       </c>
       <c r="O21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="P21" t="s">
         <v>146</v>
@@ -2355,15 +2414,15 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="K6" r:id="rId2"/>
-    <hyperlink ref="K9" r:id="rId3"/>
-    <hyperlink ref="K10" r:id="rId4"/>
-    <hyperlink ref="K11" r:id="rId5"/>
-    <hyperlink ref="K12" r:id="rId6"/>
-    <hyperlink ref="K13" r:id="rId7"/>
-    <hyperlink ref="K15" r:id="rId8"/>
-    <hyperlink ref="K16" r:id="rId9"/>
-    <hyperlink ref="K17" r:id="rId10"/>
+    <hyperlink ref="K3" r:id="rId2"/>
+    <hyperlink ref="K5" r:id="rId3"/>
+    <hyperlink ref="K8" r:id="rId4"/>
+    <hyperlink ref="K10" r:id="rId5"/>
+    <hyperlink ref="K11" r:id="rId6"/>
+    <hyperlink ref="K12" r:id="rId7"/>
+    <hyperlink ref="K16" r:id="rId8"/>
+    <hyperlink ref="K17" r:id="rId9"/>
+    <hyperlink ref="K19" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2443,14 +2502,8 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
       <c r="C3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>165</v>
@@ -2470,13 +2523,13 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
         <v>166</v>
@@ -2496,13 +2549,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>167</v>
@@ -2522,7 +2575,7 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -2534,7 +2587,7 @@
         <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
         <v>195</v>
@@ -2545,13 +2598,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>169</v>
@@ -2570,8 +2623,14 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
       </c>
       <c r="E8" t="s">
         <v>170</v>
@@ -2580,7 +2639,7 @@
         <v>180</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
         <v>197</v>
@@ -2603,7 +2662,7 @@
         <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
         <v>198</v>
@@ -2611,7 +2670,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
@@ -2620,7 +2679,7 @@
         <v>156</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
         <v>172</v>
@@ -2629,7 +2688,7 @@
         <v>182</v>
       </c>
       <c r="G10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="H10" t="s">
         <v>199</v>
@@ -2637,7 +2696,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -2751,10 +2810,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -2763,10 +2822,10 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G4">
         <v>3.83</v>
@@ -2774,10 +2833,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -2786,10 +2845,10 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G5">
         <v>4.53</v>
@@ -2797,10 +2856,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -2809,10 +2868,10 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6">
         <v>5.99</v>
@@ -2820,10 +2879,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -2832,10 +2891,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7">
         <v>5.07</v>
@@ -2863,7 +2922,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2872,10 +2931,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G9">
         <v>4.32</v>
@@ -2886,7 +2945,7 @@
         <v>59</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -2955,7 +3014,7 @@
         <v>64</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -2964,10 +3023,10 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13">
         <v>4.73</v>
@@ -2990,7 +3049,7 @@
         <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>3.84</v>
@@ -2998,10 +3057,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -3010,10 +3069,10 @@
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G15">
         <v>5.56</v>
@@ -3021,10 +3080,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -3033,10 +3092,10 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G16">
         <v>5.68</v>
@@ -3044,10 +3103,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -3056,10 +3115,10 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="G17">
         <v>4.68</v>
@@ -3082,7 +3141,7 @@
         <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G18">
         <v>3.1</v>
@@ -3093,7 +3152,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -3102,10 +3161,10 @@
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G19">
         <v>4.5</v>
@@ -3113,10 +3172,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -3125,10 +3184,10 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F20" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G20">
         <v>4.37</v>
@@ -3136,7 +3195,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3145,10 +3204,10 @@
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G21">
         <v>4.94</v>
@@ -3251,7 +3310,7 @@
         <v>235</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26">
         <v>3.94</v>
@@ -3259,10 +3318,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C27">
         <v>10</v>
@@ -3271,10 +3330,10 @@
         <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G27">
         <v>5.04</v>
@@ -3305,7 +3364,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>123</v>
@@ -3317,10 +3376,10 @@
         <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G29">
         <v>4.84</v>
@@ -3328,10 +3387,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -3340,10 +3399,10 @@
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G30">
         <v>6.25</v>
@@ -3351,7 +3410,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -3360,10 +3419,10 @@
         <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31">
         <v>4.71</v>
@@ -3371,10 +3430,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C32">
         <v>10</v>
@@ -3383,10 +3442,10 @@
         <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G32">
         <v>5.81</v>
@@ -3397,7 +3456,7 @@
         <v>58</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33">
         <v>10</v>
@@ -3483,7 +3542,7 @@
         <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -3526,10 +3585,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -3549,10 +3608,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>10</v>
@@ -3572,10 +3631,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -3595,10 +3654,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7">
         <v>8</v>
@@ -3621,7 +3680,7 @@
         <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -3641,10 +3700,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3667,7 +3726,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -3690,7 +3749,7 @@
         <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3736,7 +3795,7 @@
         <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -3759,7 +3818,7 @@
         <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14">
         <v>8</v>
@@ -3779,10 +3838,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -3802,10 +3861,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -3825,10 +3884,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -3851,7 +3910,7 @@
         <v>212</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -3874,7 +3933,7 @@
         <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3894,10 +3953,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>10</v>
@@ -3917,10 +3976,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3943,7 +4002,7 @@
         <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3989,7 +4048,7 @@
         <v>215</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4012,7 +4071,7 @@
         <v>216</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -4035,7 +4094,7 @@
         <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -4055,10 +4114,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>10</v>
@@ -4101,10 +4160,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D29">
         <v>8</v>
@@ -4124,10 +4183,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -4147,10 +4206,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4170,10 +4229,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>10</v>
@@ -4196,7 +4255,7 @@
         <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33">
         <v>10</v>
@@ -4253,10 +4312,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>45</v>
@@ -4270,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
@@ -4284,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -4301,7 +4360,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -4321,7 +4380,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
@@ -4335,10 +4394,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>45</v>
@@ -4352,10 +4411,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -4386,10 +4445,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -4406,13 +4465,464 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>82.06999999999999</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>66.31999999999999</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>73.68000000000001</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>68.18000000000001</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>68.52</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>78.62</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>9</v>
+      </c>
+      <c r="I7" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>70.91</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>76.31999999999999</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>291</v>
+      </c>
+      <c r="C11" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>58.42</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>38.18</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>40.91</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
